--- a/src/main/resources/爬虫&Spark作业执行.xlsx
+++ b/src/main/resources/爬虫&Spark作业执行.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18540" windowHeight="7730" tabRatio="506" activeTab="1"/>
+    <workbookView windowWidth="11040" windowHeight="6530" tabRatio="506" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="爬虫执行汇总" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172">
   <si>
     <t>爬虫执行汇总表</t>
   </si>
@@ -730,6 +730,27 @@
     <t>com.hxqh.bigdata.ma.spark.MarketBookSpark</t>
   </si>
   <si>
+    <t>PUT /front_book_index
+PUT /front_book_index/_mapping/front_book_type
+{
+  "properties": {
+          "addTime": {
+            "type": "date",
+            "format": "yyyy-MM-dd HH:mm:ss||yyyy-MM-dd||epoch_millis"
+          },
+          "numvalue": {
+            "type": "double"
+          },
+          "name": {
+            "type": "keyword"
+          },
+          "category": {
+                  "type": "keyword"
+          }
+        }
+}</t>
+  </si>
+  <si>
     <t>各类别占比情况</t>
   </si>
   <si>
@@ -782,12 +803,19 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>累计点击量最多作品排名</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF808080"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>Top10</t>
@@ -798,12 +826,19 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>累计点击量最多作者排名</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF808080"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>Top10</t>
@@ -813,22 +848,55 @@
     <t>literature_clicknum_author</t>
   </si>
   <si>
-    <t>票房占比</t>
+    <t>累计分账票房Top10</t>
+  </si>
+  <si>
+    <t>movie_sum_split_box</t>
   </si>
   <si>
     <t>com.hxqh.bigdata.ma.spark.MarketMaoYanSpark</t>
   </si>
   <si>
-    <t>各影片票房变化曲线</t>
+    <t>累计综合票房Top10</t>
+  </si>
+  <si>
+    <t>movie_sum_box</t>
+  </si>
+  <si>
+    <t>实时分账票房Top10</t>
+  </si>
+  <si>
+    <t>movie_realtime_split_box</t>
+  </si>
+  <si>
+    <t>实时综合票房Top10</t>
+  </si>
+  <si>
+    <t>movie_realtime_box</t>
+  </si>
+  <si>
+    <t>累计综合票房占比</t>
+  </si>
+  <si>
+    <t>movie_sum_box_pie</t>
+  </si>
+  <si>
+    <t>实时综合票房占比</t>
+  </si>
+  <si>
+    <t>movie_realtime_box_pie</t>
+  </si>
+  <si>
+    <t>排片场次Top10</t>
+  </si>
+  <si>
+    <t>movie_showInfo</t>
   </si>
   <si>
     <t>排片场次占比</t>
   </si>
   <si>
-    <t>豆瓣评分前10名</t>
-  </si>
-  <si>
-    <t>各影片排片场次变化曲线</t>
+    <t>movie_showInfo_pie</t>
   </si>
 </sst>
 </file>
@@ -836,12 +904,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -876,16 +944,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -906,7 +974,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -915,6 +983,51 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -936,16 +1049,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -959,8 +1065,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -974,57 +1088,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF808080"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -1054,7 +1127,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,13 +1199,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1090,7 +1265,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,73 +1283,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1180,55 +1301,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1409,6 +1482,21 @@
       </diagonal>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1424,22 +1512,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1463,22 +1545,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1498,11 +1565,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1514,10 +1587,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1526,7 +1599,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1535,128 +1608,128 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1670,9 +1743,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1684,9 +1754,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1699,9 +1766,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1717,13 +1781,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1756,9 +1817,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1776,9 +1834,6 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2151,17 +2206,17 @@
   <sheetPr/>
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="5.09090909090909" customWidth="1"/>
-    <col min="2" max="2" width="9.36363636363636" style="23" customWidth="1"/>
-    <col min="3" max="3" width="4.72727272727273" style="23" customWidth="1"/>
+    <col min="2" max="2" width="9.36363636363636" style="19" customWidth="1"/>
+    <col min="3" max="3" width="4.72727272727273" style="19" customWidth="1"/>
     <col min="4" max="4" width="8.36363636363636" customWidth="1"/>
     <col min="5" max="5" width="7.27272727272727" customWidth="1"/>
     <col min="6" max="6" width="7.72727272727273" customWidth="1"/>
@@ -2177,549 +2232,549 @@
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1" spans="1:15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-    </row>
-    <row r="2" s="22" customFormat="1" ht="49" customHeight="1" spans="1:15">
-      <c r="A2" s="26" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="49" customHeight="1" spans="1:15">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="N2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="O2" s="24" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" ht="40" customHeight="1" spans="1:15">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="30" t="s">
+      <c r="F3" s="27"/>
+      <c r="G3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38" t="s">
+      <c r="I3" s="32"/>
+      <c r="J3" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="40" t="s">
+      <c r="O3" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" ht="40" customHeight="1" spans="1:15">
-      <c r="A4" s="29"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8">
+      <c r="A4" s="25"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30" t="s">
+      <c r="F4" s="26"/>
+      <c r="G4" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="37"/>
-      <c r="J4" s="38" t="s">
+      <c r="I4" s="32"/>
+      <c r="J4" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="41"/>
-      <c r="L4" s="14" t="s">
+      <c r="K4" s="35"/>
+      <c r="L4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="40" t="s">
+      <c r="O4" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" ht="40" customHeight="1" spans="1:15">
-      <c r="A5" s="29"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8">
+      <c r="A5" s="25"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7">
         <v>3</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30" t="s">
+      <c r="F5" s="26"/>
+      <c r="G5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="38" t="s">
+      <c r="I5" s="32"/>
+      <c r="J5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="41"/>
-      <c r="L5" s="14" t="s">
+      <c r="K5" s="35"/>
+      <c r="L5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="21" t="s">
+      <c r="N5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="O5" s="40"/>
+      <c r="O5" s="2"/>
     </row>
     <row r="6" ht="40" customHeight="1" spans="1:15">
-      <c r="A6" s="29"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="25"/>
+      <c r="B6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>4</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="30" t="s">
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="38" t="s">
+      <c r="I6" s="32"/>
+      <c r="J6" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="41"/>
-      <c r="L6" s="14" t="s">
+      <c r="K6" s="35"/>
+      <c r="L6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="21" t="s">
+      <c r="N6" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="O6" s="40" t="s">
+      <c r="O6" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" ht="44" customHeight="1" spans="1:15">
-      <c r="A7" s="29"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>5</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="30" t="s">
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="38" t="s">
+      <c r="I7" s="32"/>
+      <c r="J7" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="14" t="s">
+      <c r="K7" s="36"/>
+      <c r="L7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="21" t="s">
+      <c r="N7" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="40" t="s">
+      <c r="O7" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" ht="40" customHeight="1" spans="1:15">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="7">
         <v>1</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="11" t="s">
+      <c r="H8" s="29"/>
+      <c r="I8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="39" t="s">
+      <c r="K8" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="21" t="s">
+      <c r="N8" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="O8" s="40" t="s">
+      <c r="O8" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" ht="40" customHeight="1" spans="1:15">
-      <c r="A9" s="29"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="14">
+      <c r="A9" s="25"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7">
         <v>2</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="10">
         <v>0.00694444444444444</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="35"/>
-      <c r="I9" s="11" t="s">
+      <c r="H9" s="30"/>
+      <c r="I9" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="14" t="s">
+      <c r="J9" s="9"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="M9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="21" t="s">
+      <c r="N9" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="O9" s="40"/>
+      <c r="O9" s="2"/>
     </row>
     <row r="10" ht="40" customHeight="1" spans="1:15">
-      <c r="A10" s="29"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="14">
+      <c r="A10" s="25"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
         <v>3</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="35"/>
-      <c r="I10" s="11" t="s">
+      <c r="H10" s="30"/>
+      <c r="I10" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="14" t="s">
+      <c r="J10" s="9"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="14" t="s">
+      <c r="M10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N10" s="21" t="s">
+      <c r="N10" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="O10" s="40"/>
+      <c r="O10" s="2"/>
     </row>
     <row r="11" ht="40" customHeight="1" spans="1:15">
-      <c r="A11" s="29"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="7">
         <v>4</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="10">
         <v>0.75</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="35"/>
-      <c r="I11" s="11" t="s">
+      <c r="H11" s="30"/>
+      <c r="I11" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="41"/>
-      <c r="L11" s="14" t="s">
+      <c r="K11" s="35"/>
+      <c r="L11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="14" t="s">
+      <c r="M11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N11" s="21" t="s">
+      <c r="N11" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="O11" s="40" t="s">
+      <c r="O11" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" ht="40" customHeight="1" spans="1:15">
-      <c r="A12" s="29"/>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="7">
         <v>5</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="10">
         <v>0.166666666666667</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="35"/>
-      <c r="I12" s="11" t="s">
+      <c r="H12" s="30"/>
+      <c r="I12" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="K12" s="41"/>
-      <c r="L12" s="14" t="s">
+      <c r="K12" s="35"/>
+      <c r="L12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="14" t="s">
+      <c r="M12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N12" s="21" t="s">
+      <c r="N12" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="O12" s="40" t="s">
+      <c r="O12" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="13" ht="40" customHeight="1" spans="1:15">
-      <c r="A13" s="29"/>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="25"/>
+      <c r="B13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="7">
         <v>6</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="36"/>
-      <c r="G13" s="14" t="s">
+      <c r="F13" s="31"/>
+      <c r="G13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="35"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="11" t="s">
+      <c r="H13" s="30"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="41"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="21" t="s">
+      <c r="K13" s="35"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="O13" s="40" t="s">
+      <c r="O13" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="14" ht="40" customHeight="1" spans="1:15">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="7">
         <v>1</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14" t="s">
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="14" t="s">
+      <c r="M14" s="7" t="s">
         <v>24</v>
       </c>
       <c r="N14" t="s">
         <v>74</v>
       </c>
-      <c r="O14" s="45"/>
+      <c r="O14" s="39"/>
     </row>
     <row r="15" ht="40" customHeight="1" spans="1:15">
-      <c r="A15" s="29"/>
-      <c r="B15" s="14" t="s">
+      <c r="A15" s="25"/>
+      <c r="B15" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="7">
         <v>2</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14" t="s">
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="M15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N15" s="21" t="s">
+      <c r="N15" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="O15" s="45"/>
+      <c r="O15" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -2748,12 +2803,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2774,750 +2829,828 @@
       <c r="A1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="49" customHeight="1" spans="1:10">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="10">
         <v>0.365972222222222</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="9"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7">
         <v>2</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7">
         <v>3</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="11" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7">
         <v>4</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7">
         <v>5</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="11" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7">
         <v>6</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="11" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7">
         <v>7</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="11" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7">
         <v>8</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="11" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="7">
         <v>1</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="11" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="10">
         <v>0.260416666666667</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="9"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="14"/>
-      <c r="B12" s="9">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7">
         <v>2</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="11" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" ht="28" spans="1:10">
-      <c r="A13" s="14"/>
-      <c r="B13" s="9">
+      <c r="F12" s="9"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7">
         <v>3</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="11" t="s">
+      <c r="D13" s="11"/>
+      <c r="E13" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="14"/>
-      <c r="B14" s="9">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7">
         <v>4</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="11" t="s">
+      <c r="D14" s="11"/>
+      <c r="E14" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="7">
         <v>1</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="11" t="s">
+      <c r="D15" s="11"/>
+      <c r="E15" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="10">
         <v>0.3125</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="9"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="14"/>
-      <c r="B16" s="9">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7">
         <v>2</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="11" t="s">
+      <c r="D16" s="11"/>
+      <c r="E16" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="14"/>
-      <c r="B17" s="9">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7">
         <v>3</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="11" t="s">
+      <c r="D17" s="11"/>
+      <c r="E17" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="14"/>
-      <c r="B18" s="9">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7">
         <v>4</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="11" t="s">
+      <c r="D18" s="11"/>
+      <c r="E18" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="7"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="14"/>
-      <c r="B19" s="9">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7">
         <v>5</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="11" t="s">
+      <c r="D19" s="11"/>
+      <c r="E19" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="14"/>
-      <c r="B20" s="9">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7">
         <v>6</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="11" t="s">
+      <c r="D20" s="11"/>
+      <c r="E20" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="14"/>
-      <c r="B21" s="9">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7">
         <v>7</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="11" t="s">
+      <c r="D21" s="14"/>
+      <c r="E21" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="7"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="7">
         <v>1</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="10">
         <v>0.388888888888889</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="9"/>
+      <c r="I22" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="J22" s="7"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="14"/>
-      <c r="B23" s="9">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7">
         <v>2</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="11" t="s">
+      <c r="C23" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="9"/>
+      <c r="J23" s="7"/>
     </row>
     <row r="24" ht="28" spans="1:10">
-      <c r="A24" s="14"/>
-      <c r="B24" s="9">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7">
         <v>3</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="11" t="s">
+      <c r="C24" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
       <c r="I24" s="11"/>
-      <c r="J24" s="9"/>
+      <c r="J24" s="7"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="14"/>
-      <c r="B25" s="9">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7">
         <v>4</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="11" t="s">
+      <c r="C25" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
       <c r="I25" s="11"/>
-      <c r="J25" s="9"/>
+      <c r="J25" s="7"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="14"/>
-      <c r="B26" s="9">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7">
         <v>5</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="11" t="s">
+      <c r="C26" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
       <c r="I26" s="11"/>
-      <c r="J26" s="9"/>
+      <c r="J26" s="7"/>
     </row>
     <row r="27" ht="16" customHeight="1" spans="1:10">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="7">
         <v>1</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="11" t="s">
+      <c r="C27" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="D27" s="11"/>
+      <c r="E27" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="F27" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="7" t="s">
         <v>111</v>
       </c>
       <c r="I27" s="11"/>
-      <c r="J27" s="9"/>
+      <c r="J27" s="7"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:10">
-      <c r="A28" s="14"/>
-      <c r="B28" s="9">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7">
         <v>2</v>
       </c>
-      <c r="C28" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="11" t="s">
+      <c r="C28" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
       <c r="I28" s="11"/>
-      <c r="J28" s="9"/>
+      <c r="J28" s="7"/>
     </row>
     <row r="29" ht="17" customHeight="1" spans="1:10">
-      <c r="A29" s="14"/>
-      <c r="B29" s="9">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7">
         <v>3</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="11" t="s">
+      <c r="C29" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
       <c r="I29" s="11"/>
-      <c r="J29" s="9"/>
+      <c r="J29" s="7"/>
     </row>
     <row r="30" ht="28" spans="1:10">
-      <c r="A30" s="14"/>
-      <c r="B30" s="9">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7">
         <v>4</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="11" t="s">
+      <c r="C30" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
       <c r="I30" s="11"/>
-      <c r="J30" s="9"/>
+      <c r="J30" s="7"/>
     </row>
     <row r="31" ht="37" customHeight="1" spans="1:10">
-      <c r="A31" s="14"/>
-      <c r="B31" s="9">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7">
         <v>5</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="11" t="s">
+      <c r="C31" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
       <c r="I31" s="11"/>
-      <c r="J31" s="9"/>
+      <c r="J31" s="7"/>
     </row>
     <row r="32" ht="31" customHeight="1" spans="1:10">
-      <c r="A32" s="14"/>
-      <c r="B32" s="9">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7">
         <v>6</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="11" t="s">
+      <c r="C32" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
       <c r="I32" s="11"/>
-      <c r="J32" s="9"/>
+      <c r="J32" s="7"/>
     </row>
     <row r="33" ht="33" customHeight="1" spans="1:10">
-      <c r="A33" s="14"/>
-      <c r="B33" s="9">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7">
         <v>7</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="11" t="s">
+      <c r="C33" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="9"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="7"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="7">
         <v>1</v>
       </c>
-      <c r="C34" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="D34" s="10" t="s">
+      <c r="C34" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="G34" s="9" t="s">
+      <c r="E34" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="H34" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="I34" s="11"/>
-      <c r="J34" s="9"/>
+      <c r="I34" s="8" t="str">
+        <f>I3</f>
+        <v>PUT front_film
+PUT front_film/film/_mapping 
+{
+  "properties": {
+          "addTime": {
+            "type": "date",
+            "format": "yyyy-MM-dd HH:mm:ss||yyyy-MM-dd||epoch_millis"
+          },
+          "name": {
+            "type": "keyword"
+          },
+          "category": {
+            "type": "keyword"
+          },
+          "numvalue": {
+            "type": "double"
+          }
+        }
+}</v>
+      </c>
+      <c r="J34" s="7"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="14"/>
-      <c r="B35" s="9">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7">
         <v>2</v>
       </c>
-      <c r="C35" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="21"/>
+      <c r="C35" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="18"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="14"/>
-      <c r="B36" s="9">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7">
         <v>3</v>
       </c>
-      <c r="C36" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="21"/>
+      <c r="C36" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="18"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="14"/>
-      <c r="B37" s="9">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7">
         <v>4</v>
       </c>
-      <c r="C37" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="21"/>
+      <c r="C37" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="18"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="14"/>
-      <c r="B38" s="9">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7">
         <v>5</v>
       </c>
-      <c r="C38" s="19" t="s">
-        <v>159</v>
+      <c r="C38" s="16" t="s">
+        <v>164</v>
       </c>
       <c r="D38" s="17"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="21"/>
-    </row>
-    <row r="39" spans="9:9">
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="9:9">
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="9:9">
-      <c r="I41" s="2"/>
+      <c r="E38" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="18"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7">
+        <v>6</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D39" s="17"/>
+      <c r="E39" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="18"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7">
+        <v>7</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D40" s="17"/>
+      <c r="E40" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="18"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7">
+        <v>8</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D41" s="14"/>
+      <c r="E41" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="18"/>
     </row>
     <row r="42" spans="9:9">
       <c r="I42" s="2"/>
@@ -3528,37 +3661,48 @@
     <row r="44" spans="9:9">
       <c r="I44" s="2"/>
     </row>
+    <row r="45" spans="9:9">
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="9:9">
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="9:9">
+      <c r="I47" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="31">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A21"/>
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A33"/>
-    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A34:A41"/>
     <mergeCell ref="D3:D21"/>
     <mergeCell ref="D22:D33"/>
-    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="D34:D41"/>
     <mergeCell ref="F3:F10"/>
     <mergeCell ref="F11:F14"/>
     <mergeCell ref="F15:F21"/>
     <mergeCell ref="F22:F26"/>
     <mergeCell ref="F27:F33"/>
-    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="F34:F41"/>
     <mergeCell ref="G3:G10"/>
     <mergeCell ref="G11:G14"/>
     <mergeCell ref="G15:G21"/>
     <mergeCell ref="G22:G26"/>
     <mergeCell ref="G27:G33"/>
-    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="G34:G41"/>
     <mergeCell ref="H3:H10"/>
     <mergeCell ref="H11:H14"/>
     <mergeCell ref="H15:H21"/>
     <mergeCell ref="H22:H26"/>
     <mergeCell ref="H27:H33"/>
-    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="H34:H41"/>
     <mergeCell ref="I3:I21"/>
+    <mergeCell ref="I22:I33"/>
+    <mergeCell ref="I34:I41"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/main/resources/爬虫&Spark作业执行.xlsx
+++ b/src/main/resources/爬虫&Spark作业执行.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11040" windowHeight="6530" tabRatio="506" activeTab="1"/>
+    <workbookView windowWidth="17440" windowHeight="5760" tabRatio="506" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="爬虫执行汇总" sheetId="2" r:id="rId1"/>
     <sheet name="Spark作业计划" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179">
   <si>
     <t>爬虫执行汇总表</t>
   </si>
@@ -95,11 +95,14 @@
 variety</t>
   </si>
   <si>
-    <t>23:00
+    <t>23:58
 (每天)</t>
   </si>
   <si>
-    <t>-</t>
+    <t>24h</t>
+  </si>
+  <si>
+    <t>5w</t>
   </si>
   <si>
     <t>综艺资源链接地址</t>
@@ -145,6 +148,12 @@
 film </t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2.6k</t>
+  </si>
+  <si>
     <t xml:space="preserve">电影资源链接地址 </t>
   </si>
   <si>
@@ -200,6 +209,9 @@
     <t>京东</t>
   </si>
   <si>
+    <t>spark2</t>
+  </si>
+  <si>
     <t>crawler_url_book</t>
   </si>
   <si>
@@ -240,7 +252,7 @@
     <t>网络文学</t>
   </si>
   <si>
-    <t>起点</t>
+    <t>17K</t>
   </si>
   <si>
     <t>crawler_url_literature</t>
@@ -401,9 +413,6 @@
 }</t>
   </si>
   <si>
-    <t>spark2</t>
-  </si>
-  <si>
     <t>market_literature/literature</t>
   </si>
   <si>
@@ -432,8 +441,8 @@
                 "label": {
                     "type": "text"
                 },
-                "scorenum": {
-                    "type": "float"
+                "fans": {
+                    "type": "long"
                 },
                 "commentnum": {
                     "type": "integer"
@@ -809,29 +818,6 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>累计点击量最多作品排名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF808080"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Top10</t>
-    </r>
-  </si>
-  <si>
-    <t>literature_clicknum_title</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>累计点击量最多作者排名</t>
     </r>
     <r>
@@ -846,6 +832,24 @@
   </si>
   <si>
     <t>literature_clicknum_author</t>
+  </si>
+  <si>
+    <t>主分类点击量占比</t>
+  </si>
+  <si>
+    <t>literature_clicknum_mainclass</t>
+  </si>
+  <si>
+    <t>二级分类点击量占比</t>
+  </si>
+  <si>
+    <t>literature_clicknum_subclass</t>
+  </si>
+  <si>
+    <t>子类占比情况</t>
+  </si>
+  <si>
+    <t>literature_subclass_pie</t>
   </si>
   <si>
     <t>累计分账票房Top10</t>
@@ -944,16 +948,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -967,14 +964,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -982,7 +979,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1011,15 +1008,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1034,10 +1055,25 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1049,42 +1085,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1121,73 +1125,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1205,7 +1143,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1217,7 +1191,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1229,31 +1227,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,42 +1306,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1499,17 +1503,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -1519,9 +1512,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1541,11 +1536,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1565,17 +1575,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1587,10 +1591,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1599,7 +1603,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1608,128 +1612,128 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1778,12 +1782,30 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1836,10 +1858,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1855,6 +1874,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2206,17 +2228,17 @@
   <sheetPr/>
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O16" sqref="O16"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="5.09090909090909" customWidth="1"/>
-    <col min="2" max="2" width="9.36363636363636" style="19" customWidth="1"/>
-    <col min="3" max="3" width="4.72727272727273" style="19" customWidth="1"/>
+    <col min="2" max="2" width="9.36363636363636" style="25" customWidth="1"/>
+    <col min="3" max="3" width="4.72727272727273" style="25" customWidth="1"/>
     <col min="4" max="4" width="8.36363636363636" customWidth="1"/>
     <col min="5" max="5" width="7.27272727272727" customWidth="1"/>
     <col min="6" max="6" width="7.72727272727273" customWidth="1"/>
@@ -2224,7 +2246,7 @@
     <col min="8" max="8" width="12.7272727272727" customWidth="1"/>
     <col min="9" max="9" width="17.5454545454545" customWidth="1"/>
     <col min="10" max="10" width="24.9181818181818" customWidth="1"/>
-    <col min="11" max="11" width="10.5454545454545" customWidth="1"/>
+    <col min="11" max="11" width="9.51818181818182" customWidth="1"/>
     <col min="12" max="12" width="7.45454545454545" customWidth="1"/>
     <col min="13" max="13" width="6.63636363636364" customWidth="1"/>
     <col min="14" max="14" width="21.4545454545455" customWidth="1"/>
@@ -2232,73 +2254,73 @@
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1" spans="1:15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="49" customHeight="1" spans="1:15">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="30" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" ht="40" customHeight="1" spans="1:15">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="31" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -2307,188 +2329,190 @@
       <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="26" t="s">
+      <c r="F3" s="33"/>
+      <c r="G3" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33" t="s">
+      <c r="I3" s="38"/>
+      <c r="J3" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="40" t="s">
         <v>23</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>24</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="18" t="s">
         <v>25</v>
       </c>
+      <c r="N3" s="24" t="s">
+        <v>26</v>
+      </c>
       <c r="O3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" ht="40" customHeight="1" spans="1:15">
-      <c r="A4" s="25"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26" t="s">
+      <c r="E4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="33" t="s">
+      <c r="H4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="35"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="41"/>
       <c r="L4" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="18" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" ht="40" customHeight="1" spans="1:15">
-      <c r="A5" s="25"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7">
         <v>3</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26" t="s">
+      <c r="E5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="35"/>
+      <c r="H5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="38"/>
+      <c r="J5" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="41"/>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="18" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="O5" s="2"/>
     </row>
     <row r="6" ht="40" customHeight="1" spans="1:15">
-      <c r="A6" s="25"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C6" s="7">
         <v>4</v>
       </c>
-      <c r="D6" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="26" t="s">
+      <c r="D6" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="33"/>
+      <c r="G6" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="35"/>
+      <c r="H6" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="38"/>
+      <c r="J6" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="41"/>
       <c r="L6" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" s="18" t="s">
-        <v>40</v>
+        <v>31</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" ht="44" customHeight="1" spans="1:15">
-      <c r="A7" s="25"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C7" s="7">
         <v>5</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="26" t="s">
+      <c r="D7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="36"/>
+      <c r="H7" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="41"/>
       <c r="L7" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" s="18" t="s">
-        <v>46</v>
+        <v>31</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>50</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" ht="40" customHeight="1" spans="1:15">
-      <c r="A8" s="25" t="s">
-        <v>48</v>
+      <c r="A8" s="31" t="s">
+        <v>52</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>17</v>
@@ -2500,39 +2524,37 @@
         <v>18</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" s="10">
         <v>0.0416666666666667</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="29"/>
+        <v>53</v>
+      </c>
+      <c r="H8" s="35"/>
       <c r="I8" s="9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>23</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="K8" s="41"/>
       <c r="L8" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="18" t="s">
-        <v>52</v>
+        <v>31</v>
+      </c>
+      <c r="N8" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" ht="40" customHeight="1" spans="1:15">
-      <c r="A9" s="25"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7">
         <v>2</v>
@@ -2547,27 +2569,27 @@
         <v>0.00694444444444444</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="30"/>
+        <v>53</v>
+      </c>
+      <c r="H9" s="36"/>
       <c r="I9" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J9" s="9"/>
-      <c r="K9" s="35"/>
+      <c r="K9" s="41"/>
       <c r="L9" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="18" t="s">
-        <v>55</v>
+        <v>31</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="O9" s="2"/>
     </row>
     <row r="10" ht="40" customHeight="1" spans="1:15">
-      <c r="A10" s="25"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7">
         <v>3</v>
@@ -2576,208 +2598,208 @@
         <v>18</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F10" s="10">
         <v>0.0416666666666667</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="30"/>
+        <v>53</v>
+      </c>
+      <c r="H10" s="36"/>
       <c r="I10" s="9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J10" s="9"/>
-      <c r="K10" s="35"/>
+      <c r="K10" s="41"/>
       <c r="L10" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" s="18" t="s">
-        <v>57</v>
+        <v>31</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>61</v>
       </c>
       <c r="O10" s="2"/>
     </row>
     <row r="11" ht="40" customHeight="1" spans="1:15">
-      <c r="A11" s="25"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C11" s="7">
         <v>4</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F11" s="10">
-        <v>0.75</v>
+        <v>0.00694444444444444</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="30"/>
+        <v>53</v>
+      </c>
+      <c r="H11" s="36"/>
       <c r="I11" s="9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" s="35"/>
+        <v>62</v>
+      </c>
+      <c r="K11" s="41"/>
       <c r="L11" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" s="18" t="s">
-        <v>59</v>
+        <v>31</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>63</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" ht="40" customHeight="1" spans="1:15">
-      <c r="A12" s="25"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C12" s="7">
         <v>5</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F12" s="10">
-        <v>0.166666666666667</v>
+        <v>0.4375</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="30"/>
+        <v>53</v>
+      </c>
+      <c r="H12" s="36"/>
       <c r="I12" s="9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="K12" s="35"/>
+        <v>65</v>
+      </c>
+      <c r="K12" s="41"/>
       <c r="L12" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N12" s="18" t="s">
-        <v>63</v>
+        <v>31</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>66</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" ht="40" customHeight="1" spans="1:15">
-      <c r="A13" s="25"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C13" s="7">
         <v>6</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="31"/>
+        <v>28</v>
+      </c>
+      <c r="F13" s="37"/>
       <c r="G13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="31"/>
+        <v>70</v>
+      </c>
+      <c r="H13" s="36"/>
+      <c r="I13" s="37"/>
       <c r="J13" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K13" s="35"/>
+        <v>71</v>
+      </c>
+      <c r="K13" s="41"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="18" t="s">
-        <v>69</v>
+      <c r="N13" s="24" t="s">
+        <v>72</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" ht="40" customHeight="1" spans="1:15">
-      <c r="A14" s="25" t="s">
-        <v>71</v>
+      <c r="A14" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="7"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="41"/>
       <c r="L14" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N14" t="s">
-        <v>74</v>
-      </c>
-      <c r="O14" s="39"/>
+        <v>77</v>
+      </c>
+      <c r="O14" s="44"/>
     </row>
     <row r="15" ht="40" customHeight="1" spans="1:15">
-      <c r="A15" s="25"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C15" s="7">
         <v>2</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="7"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="47"/>
       <c r="L15" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N15" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="O15" s="39"/>
+        <v>31</v>
+      </c>
+      <c r="N15" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="O15" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="14">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A13"/>
@@ -2787,8 +2809,7 @@
     <mergeCell ref="H8:H13"/>
     <mergeCell ref="I3:I7"/>
     <mergeCell ref="J8:J10"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="K8:K13"/>
+    <mergeCell ref="K3:K15"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="O8:O10"/>
     <mergeCell ref="O14:O15"/>
@@ -2803,12 +2824,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34:E41"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2816,18 +2837,18 @@
     <col min="1" max="1" width="8.18181818181818" customWidth="1"/>
     <col min="2" max="2" width="5.45454545454545" customWidth="1"/>
     <col min="3" max="3" width="22.6363636363636" customWidth="1"/>
-    <col min="4" max="4" width="17.2727272727273" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.4545454545455" style="2" customWidth="1"/>
     <col min="5" max="5" width="30.5454545454545" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.4545454545455" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.3636363636364" style="2" customWidth="1"/>
     <col min="7" max="7" width="8.09090909090909" style="2" customWidth="1"/>
     <col min="8" max="8" width="7.36363636363636" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="15.0909090909091" customWidth="1"/>
+    <col min="10" max="10" width="19.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1" spans="1:10">
       <c r="A1" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2847,57 +2868,57 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G3" s="10">
         <v>0.365972222222222</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J3" s="7"/>
     </row>
@@ -2907,11 +2928,11 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="7"/>
@@ -2925,11 +2946,11 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="7"/>
@@ -2943,11 +2964,11 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="7"/>
@@ -2961,11 +2982,11 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="7"/>
@@ -2979,11 +3000,11 @@
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="7"/>
@@ -2997,11 +3018,11 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="7"/>
@@ -3015,11 +3036,11 @@
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="7"/>
@@ -3029,26 +3050,26 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B11" s="7">
         <v>1</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G11" s="10">
         <v>0.260416666666667</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="7"/>
@@ -3059,11 +3080,11 @@
         <v>2</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="7"/>
@@ -3077,11 +3098,11 @@
         <v>3</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="7"/>
@@ -3095,11 +3116,11 @@
         <v>4</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="9" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="7"/>
@@ -3109,26 +3130,26 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B15" s="7">
         <v>1</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G15" s="10">
         <v>0.3125</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="7"/>
@@ -3139,11 +3160,11 @@
         <v>2</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="7"/>
@@ -3157,11 +3178,11 @@
         <v>3</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="7"/>
@@ -3175,11 +3196,11 @@
         <v>4</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="7"/>
@@ -3193,11 +3214,11 @@
         <v>5</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="7"/>
@@ -3211,11 +3232,11 @@
         <v>6</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="7"/>
@@ -3229,11 +3250,11 @@
         <v>7</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="7"/>
@@ -3243,31 +3264,31 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B22" s="7">
         <v>1</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G22" s="10">
         <v>0.388888888888889</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>133</v>
+        <v>114</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>136</v>
       </c>
       <c r="J22" s="7"/>
     </row>
@@ -3277,16 +3298,16 @@
         <v>2</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
-      <c r="I23" s="11"/>
+      <c r="I23" s="19"/>
       <c r="J23" s="7"/>
     </row>
     <row r="24" ht="28" spans="1:10">
@@ -3295,16 +3316,16 @@
         <v>3</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="9" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="11"/>
+      <c r="I24" s="19"/>
       <c r="J24" s="7"/>
     </row>
     <row r="25" spans="1:10">
@@ -3313,16 +3334,16 @@
         <v>4</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="11"/>
+      <c r="I25" s="19"/>
       <c r="J25" s="7"/>
     </row>
     <row r="26" spans="1:10">
@@ -3331,178 +3352,214 @@
         <v>5</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
-      <c r="I26" s="11"/>
+      <c r="I26" s="19"/>
       <c r="J26" s="7"/>
     </row>
     <row r="27" ht="16" customHeight="1" spans="1:10">
-      <c r="A27" s="7" t="s">
-        <v>42</v>
+      <c r="A27" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="B27" s="7">
         <v>1</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I27" s="11"/>
+        <v>144</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="I27" s="19"/>
       <c r="J27" s="7"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:10">
-      <c r="A28" s="7"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="7">
         <v>2</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="11"/>
+        <v>147</v>
+      </c>
+      <c r="F28" s="19"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="19"/>
       <c r="J28" s="7"/>
     </row>
     <row r="29" ht="17" customHeight="1" spans="1:10">
-      <c r="A29" s="7"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="7">
         <v>3</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="11"/>
+        <v>149</v>
+      </c>
+      <c r="F29" s="19"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="19"/>
       <c r="J29" s="7"/>
     </row>
     <row r="30" ht="28" spans="1:10">
-      <c r="A30" s="7"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="7">
         <v>4</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="11"/>
+        <v>151</v>
+      </c>
+      <c r="F30" s="19"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="19"/>
       <c r="J30" s="7"/>
     </row>
     <row r="31" ht="37" customHeight="1" spans="1:10">
-      <c r="A31" s="7"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="7">
         <v>5</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="11"/>
+        <v>153</v>
+      </c>
+      <c r="F31" s="19"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="19"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" ht="31" customHeight="1" spans="1:10">
-      <c r="A32" s="7"/>
+    <row r="32" ht="33" customHeight="1" spans="1:10">
+      <c r="A32" s="18"/>
       <c r="B32" s="7">
         <v>6</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="D32" s="11"/>
+        <v>154</v>
+      </c>
+      <c r="D32" s="14"/>
       <c r="E32" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="11"/>
+        <v>155</v>
+      </c>
+      <c r="F32" s="19"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="19"/>
       <c r="J32" s="7"/>
     </row>
     <row r="33" ht="33" customHeight="1" spans="1:10">
-      <c r="A33" s="7"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="7">
         <v>7</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="D33" s="14"/>
+        <v>156</v>
+      </c>
+      <c r="D33" s="20"/>
       <c r="E33" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="14"/>
+        <v>157</v>
+      </c>
+      <c r="F33" s="19"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="19"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="7" t="s">
-        <v>65</v>
-      </c>
+    <row r="34" ht="33" customHeight="1" spans="1:10">
+      <c r="A34" s="18"/>
       <c r="B34" s="7">
+        <v>8</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D34" s="20"/>
+      <c r="E34" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F34" s="19"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="7"/>
+    </row>
+    <row r="35" ht="33" customHeight="1" spans="1:10">
+      <c r="A35" s="21"/>
+      <c r="B35" s="7">
+        <v>9</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D35" s="20"/>
+      <c r="E35" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="F35" s="22"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="7">
         <v>1</v>
       </c>
-      <c r="C34" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I34" s="8" t="str">
+      <c r="C36" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I36" s="8" t="str">
         <f>I3</f>
         <v>PUT front_film
 PUT front_film/film/_mapping 
@@ -3524,139 +3581,133 @@
         }
 }</v>
       </c>
-      <c r="J34" s="7"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7">
-        <v>2</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="18"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7">
-        <v>3</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="18"/>
+      <c r="J36" s="7"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="7"/>
       <c r="B37" s="7">
-        <v>4</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>162</v>
+        <v>2</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>165</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="9" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="11"/>
-      <c r="J37" s="18"/>
+      <c r="J37" s="24"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="7"/>
       <c r="B38" s="7">
-        <v>5</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="D38" s="17"/>
+        <v>3</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D38" s="11"/>
       <c r="E38" s="9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="18"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="24"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="7"/>
       <c r="B39" s="7">
-        <v>6</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="D39" s="17"/>
+        <v>4</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D39" s="11"/>
       <c r="E39" s="9" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="18"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="24"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="7"/>
       <c r="B40" s="7">
-        <v>7</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D40" s="17"/>
+        <v>5</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="D40" s="11"/>
       <c r="E40" s="9" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="18"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="24"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="7"/>
       <c r="B41" s="7">
-        <v>8</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="D41" s="14"/>
+        <v>6</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D41" s="11"/>
       <c r="E41" s="9" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="18"/>
-    </row>
-    <row r="42" spans="9:9">
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="9:9">
-      <c r="I43" s="2"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="24"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7">
+        <v>7</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="F42" s="9"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="24"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7">
+        <v>8</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="D43" s="14"/>
+      <c r="E43" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="F43" s="9"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="24"/>
     </row>
     <row r="44" spans="9:9">
       <c r="I44" s="2"/>
@@ -3669,6 +3720,12 @@
     </row>
     <row r="47" spans="9:9">
       <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="9:9">
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="9:9">
+      <c r="I49" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="31">
@@ -3677,32 +3734,32 @@
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A21"/>
     <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="A27:A35"/>
+    <mergeCell ref="A36:A43"/>
     <mergeCell ref="D3:D21"/>
-    <mergeCell ref="D22:D33"/>
-    <mergeCell ref="D34:D41"/>
+    <mergeCell ref="D22:D32"/>
+    <mergeCell ref="D36:D43"/>
     <mergeCell ref="F3:F10"/>
     <mergeCell ref="F11:F14"/>
     <mergeCell ref="F15:F21"/>
     <mergeCell ref="F22:F26"/>
-    <mergeCell ref="F27:F33"/>
-    <mergeCell ref="F34:F41"/>
+    <mergeCell ref="F27:F35"/>
+    <mergeCell ref="F36:F43"/>
     <mergeCell ref="G3:G10"/>
     <mergeCell ref="G11:G14"/>
     <mergeCell ref="G15:G21"/>
     <mergeCell ref="G22:G26"/>
-    <mergeCell ref="G27:G33"/>
-    <mergeCell ref="G34:G41"/>
+    <mergeCell ref="G27:G35"/>
+    <mergeCell ref="G36:G43"/>
     <mergeCell ref="H3:H10"/>
     <mergeCell ref="H11:H14"/>
     <mergeCell ref="H15:H21"/>
     <mergeCell ref="H22:H26"/>
-    <mergeCell ref="H27:H33"/>
-    <mergeCell ref="H34:H41"/>
+    <mergeCell ref="H27:H35"/>
+    <mergeCell ref="H36:H43"/>
     <mergeCell ref="I3:I21"/>
-    <mergeCell ref="I22:I33"/>
-    <mergeCell ref="I34:I41"/>
+    <mergeCell ref="I22:I35"/>
+    <mergeCell ref="I36:I43"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/main/resources/爬虫&Spark作业执行.xlsx
+++ b/src/main/resources/爬虫&Spark作业执行.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17440" windowHeight="5760" tabRatio="506" activeTab="1"/>
+    <workbookView windowWidth="17440" windowHeight="5760" tabRatio="506"/>
   </bookViews>
   <sheets>
     <sheet name="爬虫执行汇总" sheetId="2" r:id="rId1"/>
@@ -85,7 +85,7 @@
     <t>spark1</t>
   </si>
   <si>
-    <t>每15天</t>
+    <t>每月15日</t>
   </si>
   <si>
     <t>crawler_url_variety</t>
@@ -138,14 +138,14 @@
 }</t>
   </si>
   <si>
-    <t>spark3</t>
+    <t>spark2</t>
   </si>
   <si>
     <t>crawler_url</t>
   </si>
   <si>
-    <t xml:space="preserve">history_url_film
-film </t>
+    <t>history_url_film_soap
+ film_soap</t>
   </si>
   <si>
     <t>-</t>
@@ -196,10 +196,6 @@
     <t>crawler_url_soap</t>
   </si>
   <si>
-    <t>history_url_soap
-soap</t>
-  </si>
-  <si>
     <t>电视剧资源链接地址</t>
   </si>
   <si>
@@ -209,7 +205,10 @@
     <t>京东</t>
   </si>
   <si>
-    <t>spark2</t>
+    <t>spark3</t>
+  </si>
+  <si>
+    <t>每月14日</t>
   </si>
   <si>
     <t>crawler_url_book</t>
@@ -909,9 +908,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -948,14 +947,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -963,23 +954,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1000,8 +977,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1016,22 +1008,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1040,15 +1024,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1062,6 +1038,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1077,11 +1061,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1104,7 +1103,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1119,25 +1118,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1149,55 +1154,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1215,13 +1172,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1239,13 +1286,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1257,55 +1298,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1486,17 +1479,13 @@
       </diagonal>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1505,17 +1494,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1536,6 +1514,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1551,11 +1538,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1578,8 +1571,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1591,10 +1584,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1603,137 +1596,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1785,24 +1778,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1830,14 +1811,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1857,7 +1832,13 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2228,21 +2209,21 @@
   <sheetPr/>
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="5.09090909090909" customWidth="1"/>
-    <col min="2" max="2" width="9.36363636363636" style="25" customWidth="1"/>
-    <col min="3" max="3" width="4.72727272727273" style="25" customWidth="1"/>
+    <col min="2" max="2" width="9.36363636363636" style="21" customWidth="1"/>
+    <col min="3" max="3" width="4.72727272727273" style="21" customWidth="1"/>
     <col min="4" max="4" width="8.36363636363636" customWidth="1"/>
     <col min="5" max="5" width="7.27272727272727" customWidth="1"/>
     <col min="6" max="6" width="7.72727272727273" customWidth="1"/>
-    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="7" max="7" width="8.76363636363636" customWidth="1"/>
     <col min="8" max="8" width="12.7272727272727" customWidth="1"/>
     <col min="9" max="9" width="17.5454545454545" customWidth="1"/>
     <col min="10" max="10" width="24.9181818181818" customWidth="1"/>
@@ -2254,73 +2235,73 @@
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1" spans="1:15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="49" customHeight="1" spans="1:15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="26" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" ht="40" customHeight="1" spans="1:15">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="27" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -2329,24 +2310,26 @@
       <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="32" t="s">
+      <c r="F3" s="28">
+        <v>0.427083333333333</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="39" t="s">
+      <c r="I3" s="32"/>
+      <c r="J3" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="K3" s="34" t="s">
         <v>23</v>
       </c>
       <c r="L3" s="7" t="s">
@@ -2355,7 +2338,7 @@
       <c r="M3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="24" t="s">
+      <c r="N3" s="20" t="s">
         <v>26</v>
       </c>
       <c r="O3" s="2" t="s">
@@ -2363,7 +2346,7 @@
       </c>
     </row>
     <row r="4" ht="40" customHeight="1" spans="1:15">
-      <c r="A4" s="31"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7">
         <v>2</v>
@@ -2374,25 +2357,27 @@
       <c r="E4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="28">
+        <v>0.427083333333333</v>
+      </c>
       <c r="G4" s="15" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="39" t="s">
+      <c r="I4" s="32"/>
+      <c r="J4" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="41"/>
+      <c r="K4" s="36"/>
       <c r="L4" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="24" t="s">
+      <c r="N4" s="20" t="s">
         <v>33</v>
       </c>
       <c r="O4" s="2" t="s">
@@ -2400,7 +2385,7 @@
       </c>
     </row>
     <row r="5" ht="40" customHeight="1" spans="1:15">
-      <c r="A5" s="31"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7">
         <v>3</v>
@@ -2411,62 +2396,64 @@
       <c r="E5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="15"/>
+      <c r="F5" s="28">
+        <v>0.427083333333333</v>
+      </c>
       <c r="G5" s="15" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="38"/>
-      <c r="J5" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="41"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="36"/>
       <c r="L5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="24" t="s">
+      <c r="N5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" ht="40" customHeight="1" spans="1:15">
+      <c r="A6" s="27"/>
+      <c r="B6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" ht="40" customHeight="1" spans="1:15">
-      <c r="A6" s="31"/>
-      <c r="B6" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="C6" s="7">
         <v>4</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="F6" s="28">
+        <v>0.427083333333333</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="34" t="s">
+      <c r="H6" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="38"/>
-      <c r="J6" s="39" t="s">
+      <c r="I6" s="32"/>
+      <c r="J6" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="41"/>
+      <c r="K6" s="36"/>
       <c r="L6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="24" t="s">
+      <c r="N6" s="20" t="s">
         <v>44</v>
       </c>
       <c r="O6" s="2" t="s">
@@ -2474,7 +2461,7 @@
       </c>
     </row>
     <row r="7" ht="44" customHeight="1" spans="1:15">
-      <c r="A7" s="31"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="7" t="s">
         <v>46</v>
       </c>
@@ -2484,26 +2471,30 @@
       <c r="D7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="34" t="s">
+      <c r="E7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="28">
+        <v>0.59375</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="39" t="s">
+      <c r="I7" s="32"/>
+      <c r="J7" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="41"/>
+      <c r="K7" s="36"/>
       <c r="L7" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="24" t="s">
+      <c r="N7" s="20" t="s">
         <v>50</v>
       </c>
       <c r="O7" s="2" t="s">
@@ -2511,7 +2502,7 @@
       </c>
     </row>
     <row r="8" ht="40" customHeight="1" spans="1:15">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="27" t="s">
         <v>52</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -2524,7 +2515,7 @@
         <v>18</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F8" s="10">
         <v>0.0416666666666667</v>
@@ -2532,21 +2523,21 @@
       <c r="G8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="35"/>
+      <c r="H8" s="29"/>
       <c r="I8" s="9" t="s">
         <v>54</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="41"/>
+      <c r="K8" s="36"/>
       <c r="L8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N8" s="24" t="s">
+      <c r="N8" s="20" t="s">
         <v>56</v>
       </c>
       <c r="O8" s="2" t="s">
@@ -2554,7 +2545,7 @@
       </c>
     </row>
     <row r="9" ht="40" customHeight="1" spans="1:15">
-      <c r="A9" s="31"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7">
         <v>2</v>
@@ -2571,25 +2562,25 @@
       <c r="G9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="36"/>
+      <c r="H9" s="30"/>
       <c r="I9" s="9" t="s">
         <v>58</v>
       </c>
       <c r="J9" s="9"/>
-      <c r="K9" s="41"/>
+      <c r="K9" s="36"/>
       <c r="L9" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N9" s="24" t="s">
+      <c r="N9" s="20" t="s">
         <v>59</v>
       </c>
       <c r="O9" s="2"/>
     </row>
     <row r="10" ht="40" customHeight="1" spans="1:15">
-      <c r="A10" s="31"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7">
         <v>3</v>
@@ -2606,36 +2597,36 @@
       <c r="G10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="36"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="9" t="s">
         <v>60</v>
       </c>
       <c r="J10" s="9"/>
-      <c r="K10" s="41"/>
+      <c r="K10" s="36"/>
       <c r="L10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N10" s="24" t="s">
+      <c r="N10" s="20" t="s">
         <v>61</v>
       </c>
       <c r="O10" s="2"/>
     </row>
     <row r="11" ht="40" customHeight="1" spans="1:15">
-      <c r="A11" s="31"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="7">
         <v>4</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F11" s="10">
         <v>0.00694444444444444</v>
@@ -2643,21 +2634,21 @@
       <c r="G11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="36"/>
+      <c r="H11" s="30"/>
       <c r="I11" s="9" t="s">
         <v>54</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="41"/>
+      <c r="K11" s="36"/>
       <c r="L11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N11" s="24" t="s">
+      <c r="N11" s="20" t="s">
         <v>63</v>
       </c>
       <c r="O11" s="2" t="s">
@@ -2665,7 +2656,7 @@
       </c>
     </row>
     <row r="12" ht="40" customHeight="1" spans="1:15">
-      <c r="A12" s="31"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="7" t="s">
         <v>46</v>
       </c>
@@ -2676,7 +2667,7 @@
         <v>47</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F12" s="10">
         <v>0.4375</v>
@@ -2684,21 +2675,21 @@
       <c r="G12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="36"/>
+      <c r="H12" s="30"/>
       <c r="I12" s="9" t="s">
         <v>54</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="41"/>
+      <c r="K12" s="36"/>
       <c r="L12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N12" s="24" t="s">
+      <c r="N12" s="20" t="s">
         <v>66</v>
       </c>
       <c r="O12" s="2" t="s">
@@ -2706,7 +2697,7 @@
       </c>
     </row>
     <row r="13" ht="40" customHeight="1" spans="1:15">
-      <c r="A13" s="31"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="7" t="s">
         <v>68</v>
       </c>
@@ -2717,21 +2708,21 @@
         <v>69</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="37"/>
+        <v>40</v>
+      </c>
+      <c r="F13" s="31"/>
       <c r="G13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="36"/>
-      <c r="I13" s="37"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="31"/>
       <c r="J13" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="41"/>
+      <c r="K13" s="36"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="24" t="s">
+      <c r="N13" s="20" t="s">
         <v>72</v>
       </c>
       <c r="O13" s="2" t="s">
@@ -2739,7 +2730,7 @@
       </c>
     </row>
     <row r="14" ht="40" customHeight="1" spans="1:15">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="27" t="s">
         <v>74</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -2755,9 +2746,9 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="41"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="36"/>
       <c r="L14" s="7" t="s">
         <v>31</v>
       </c>
@@ -2767,10 +2758,10 @@
       <c r="N14" t="s">
         <v>77</v>
       </c>
-      <c r="O14" s="44"/>
+      <c r="O14" s="40"/>
     </row>
     <row r="15" ht="40" customHeight="1" spans="1:15">
-      <c r="A15" s="31"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="7" t="s">
         <v>78</v>
       </c>
@@ -2784,22 +2775,22 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="47"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="43"/>
       <c r="L15" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N15" s="24" t="s">
+      <c r="N15" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="O15" s="44"/>
+      <c r="O15" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A13"/>
@@ -2808,6 +2799,7 @@
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="H8:H13"/>
     <mergeCell ref="I3:I7"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="J8:J10"/>
     <mergeCell ref="K3:K15"/>
     <mergeCell ref="O4:O5"/>
@@ -2826,10 +2818,10 @@
   <sheetPr/>
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3264,7 +3256,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="7">
         <v>1</v>
@@ -3287,7 +3279,7 @@
       <c r="H22" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="I22" s="17" t="s">
+      <c r="I22" s="8" t="s">
         <v>136</v>
       </c>
       <c r="J22" s="7"/>
@@ -3307,7 +3299,7 @@
       <c r="F23" s="9"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
-      <c r="I23" s="19"/>
+      <c r="I23" s="11"/>
       <c r="J23" s="7"/>
     </row>
     <row r="24" ht="28" spans="1:10">
@@ -3325,7 +3317,7 @@
       <c r="F24" s="9"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="19"/>
+      <c r="I24" s="11"/>
       <c r="J24" s="7"/>
     </row>
     <row r="25" spans="1:10">
@@ -3343,7 +3335,7 @@
       <c r="F25" s="9"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="19"/>
+      <c r="I25" s="11"/>
       <c r="J25" s="7"/>
     </row>
     <row r="26" spans="1:10">
@@ -3361,7 +3353,7 @@
       <c r="F26" s="9"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
-      <c r="I26" s="19"/>
+      <c r="I26" s="11"/>
       <c r="J26" s="7"/>
     </row>
     <row r="27" ht="16" customHeight="1" spans="1:10">
@@ -3378,7 +3370,7 @@
       <c r="E27" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="8" t="s">
         <v>145</v>
       </c>
       <c r="G27" s="16" t="s">
@@ -3387,11 +3379,11 @@
       <c r="H27" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="I27" s="19"/>
+      <c r="I27" s="11"/>
       <c r="J27" s="7"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:10">
-      <c r="A28" s="18"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="7">
         <v>2</v>
       </c>
@@ -3402,14 +3394,14 @@
       <c r="E28" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="19"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="11"/>
       <c r="J28" s="7"/>
     </row>
     <row r="29" ht="17" customHeight="1" spans="1:10">
-      <c r="A29" s="18"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="7">
         <v>3</v>
       </c>
@@ -3420,14 +3412,14 @@
       <c r="E29" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="F29" s="19"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="19"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="11"/>
       <c r="J29" s="7"/>
     </row>
     <row r="30" ht="28" spans="1:10">
-      <c r="A30" s="18"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="7">
         <v>4</v>
       </c>
@@ -3438,14 +3430,14 @@
       <c r="E30" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="F30" s="19"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="19"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="11"/>
       <c r="J30" s="7"/>
     </row>
     <row r="31" ht="37" customHeight="1" spans="1:10">
-      <c r="A31" s="18"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="7">
         <v>5</v>
       </c>
@@ -3456,14 +3448,14 @@
       <c r="E31" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="19"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="11"/>
       <c r="J31" s="7"/>
     </row>
     <row r="32" ht="33" customHeight="1" spans="1:10">
-      <c r="A32" s="18"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="7">
         <v>6</v>
       </c>
@@ -3474,64 +3466,64 @@
       <c r="E32" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="F32" s="19"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="19"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="11"/>
       <c r="J32" s="7"/>
     </row>
     <row r="33" ht="33" customHeight="1" spans="1:10">
-      <c r="A33" s="18"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="7">
         <v>7</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="D33" s="20"/>
+      <c r="D33" s="11"/>
       <c r="E33" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="F33" s="19"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="19"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="11"/>
       <c r="J33" s="7"/>
     </row>
     <row r="34" ht="33" customHeight="1" spans="1:10">
-      <c r="A34" s="18"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="7">
         <v>8</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="D34" s="20"/>
+      <c r="D34" s="11"/>
       <c r="E34" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="F34" s="19"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="19"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="11"/>
       <c r="J34" s="7"/>
     </row>
     <row r="35" ht="33" customHeight="1" spans="1:10">
-      <c r="A35" s="21"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="7">
         <v>9</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="D35" s="20"/>
+      <c r="D35" s="11"/>
       <c r="E35" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="F35" s="22"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="19"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="11"/>
       <c r="J35" s="7"/>
     </row>
     <row r="36" spans="1:10">
@@ -3541,7 +3533,7 @@
       <c r="B36" s="7">
         <v>1</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="19" t="s">
         <v>162</v>
       </c>
       <c r="D36" s="8" t="s">
@@ -3588,7 +3580,7 @@
       <c r="B37" s="7">
         <v>2</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="19" t="s">
         <v>165</v>
       </c>
       <c r="D37" s="11"/>
@@ -3599,14 +3591,14 @@
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="11"/>
-      <c r="J37" s="24"/>
+      <c r="J37" s="20"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="7"/>
       <c r="B38" s="7">
         <v>3</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="19" t="s">
         <v>167</v>
       </c>
       <c r="D38" s="11"/>
@@ -3617,14 +3609,14 @@
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="11"/>
-      <c r="J38" s="24"/>
+      <c r="J38" s="20"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="7"/>
       <c r="B39" s="7">
         <v>4</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="19" t="s">
         <v>169</v>
       </c>
       <c r="D39" s="11"/>
@@ -3635,14 +3627,14 @@
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="11"/>
-      <c r="J39" s="24"/>
+      <c r="J39" s="20"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="7"/>
       <c r="B40" s="7">
         <v>5</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="19" t="s">
         <v>171</v>
       </c>
       <c r="D40" s="11"/>
@@ -3653,14 +3645,14 @@
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="11"/>
-      <c r="J40" s="24"/>
+      <c r="J40" s="20"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="7"/>
       <c r="B41" s="7">
         <v>6</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="19" t="s">
         <v>173</v>
       </c>
       <c r="D41" s="11"/>
@@ -3671,14 +3663,14 @@
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="11"/>
-      <c r="J41" s="24"/>
+      <c r="J41" s="20"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="7"/>
       <c r="B42" s="7">
         <v>7</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="19" t="s">
         <v>175</v>
       </c>
       <c r="D42" s="11"/>
@@ -3689,14 +3681,14 @@
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="11"/>
-      <c r="J42" s="24"/>
+      <c r="J42" s="20"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="7"/>
       <c r="B43" s="7">
         <v>8</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="19" t="s">
         <v>177</v>
       </c>
       <c r="D43" s="14"/>
@@ -3707,7 +3699,7 @@
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="14"/>
-      <c r="J43" s="24"/>
+      <c r="J43" s="20"/>
     </row>
     <row r="44" spans="9:9">
       <c r="I44" s="2"/>

--- a/src/main/resources/爬虫&Spark作业执行.xlsx
+++ b/src/main/resources/爬虫&Spark作业执行.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17440" windowHeight="5760" tabRatio="506"/>
+    <workbookView windowWidth="18540" windowHeight="7730" tabRatio="506" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="爬虫执行汇总" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177">
   <si>
     <t>爬虫执行汇总表</t>
   </si>
@@ -729,7 +729,8 @@
     <t>累计评论量排名Top10</t>
   </si>
   <si>
-    <t>front_book_index/front_book_type</t>
+    <t>front_book_index/
+front_book_type</t>
   </si>
   <si>
     <t>books_comment</t>
@@ -814,7 +815,6 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>累计点击量最多作者排名</t>
@@ -833,12 +833,6 @@
     <t>literature_clicknum_author</t>
   </si>
   <si>
-    <t>主分类点击量占比</t>
-  </si>
-  <si>
-    <t>literature_clicknum_mainclass</t>
-  </si>
-  <si>
     <t>二级分类点击量占比</t>
   </si>
   <si>
@@ -907,12 +901,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -954,9 +948,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -985,13 +993,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -999,8 +1009,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1030,32 +1041,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1078,23 +1072,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1118,6 +1106,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1130,31 +1244,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1172,25 +1274,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1200,110 +1290,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1430,6 +1418,17 @@
         <color auto="1"/>
       </diagonal>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border diagonalUp="1">
       <left/>
       <right style="thin">
@@ -1479,13 +1478,17 @@
       </diagonal>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1514,15 +1517,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1534,6 +1528,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1553,17 +1558,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1584,10 +1583,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1596,137 +1595,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1778,6 +1777,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1823,6 +1825,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1841,19 +1867,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2207,19 +2239,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6:E7"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="5.09090909090909" customWidth="1"/>
-    <col min="2" max="2" width="9.36363636363636" style="21" customWidth="1"/>
-    <col min="3" max="3" width="4.72727272727273" style="21" customWidth="1"/>
+    <col min="2" max="2" width="9.36363636363636" style="22" customWidth="1"/>
+    <col min="3" max="3" width="4.72727272727273" style="22" customWidth="1"/>
     <col min="4" max="4" width="8.36363636363636" customWidth="1"/>
     <col min="5" max="5" width="7.27272727272727" customWidth="1"/>
     <col min="6" max="6" width="7.72727272727273" customWidth="1"/>
@@ -2235,73 +2267,73 @@
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1" spans="1:15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="49" customHeight="1" spans="1:15">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" ht="40" customHeight="1" spans="1:15">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -2316,7 +2348,7 @@
       <c r="E3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="29">
         <v>0.427083333333333</v>
       </c>
       <c r="G3" s="15" t="s">
@@ -2325,11 +2357,11 @@
       <c r="H3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33" t="s">
+      <c r="I3" s="41"/>
+      <c r="J3" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="43" t="s">
         <v>23</v>
       </c>
       <c r="L3" s="7" t="s">
@@ -2338,7 +2370,7 @@
       <c r="M3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="21" t="s">
         <v>26</v>
       </c>
       <c r="O3" s="2" t="s">
@@ -2346,7 +2378,7 @@
       </c>
     </row>
     <row r="4" ht="40" customHeight="1" spans="1:15">
-      <c r="A4" s="27"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7">
         <v>2</v>
@@ -2357,7 +2389,7 @@
       <c r="E4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="29">
         <v>0.427083333333333</v>
       </c>
       <c r="G4" s="15" t="s">
@@ -2366,18 +2398,18 @@
       <c r="H4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="35" t="s">
+      <c r="I4" s="41"/>
+      <c r="J4" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="36"/>
+      <c r="K4" s="45"/>
       <c r="L4" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="N4" s="21" t="s">
         <v>33</v>
       </c>
       <c r="O4" s="2" t="s">
@@ -2385,7 +2417,7 @@
       </c>
     </row>
     <row r="5" ht="40" customHeight="1" spans="1:15">
-      <c r="A5" s="27"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7">
         <v>3</v>
@@ -2396,7 +2428,7 @@
       <c r="E5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="29">
         <v>0.427083333333333</v>
       </c>
       <c r="G5" s="15" t="s">
@@ -2405,22 +2437,22 @@
       <c r="H5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="36"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="45"/>
       <c r="L5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="21" t="s">
         <v>37</v>
       </c>
       <c r="O5" s="2"/>
     </row>
     <row r="6" ht="40" customHeight="1" spans="1:15">
-      <c r="A6" s="27"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="7" t="s">
         <v>38</v>
       </c>
@@ -2433,7 +2465,7 @@
       <c r="E6" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="29">
         <v>0.427083333333333</v>
       </c>
       <c r="G6" s="15" t="s">
@@ -2442,18 +2474,18 @@
       <c r="H6" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="33" t="s">
+      <c r="I6" s="41"/>
+      <c r="J6" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="36"/>
+      <c r="K6" s="45"/>
       <c r="L6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="21" t="s">
         <v>44</v>
       </c>
       <c r="O6" s="2" t="s">
@@ -2461,7 +2493,7 @@
       </c>
     </row>
     <row r="7" ht="44" customHeight="1" spans="1:15">
-      <c r="A7" s="27"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="7" t="s">
         <v>46</v>
       </c>
@@ -2474,7 +2506,7 @@
       <c r="E7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="29">
         <v>0.59375</v>
       </c>
       <c r="G7" s="15" t="s">
@@ -2483,18 +2515,18 @@
       <c r="H7" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="33" t="s">
+      <c r="I7" s="41"/>
+      <c r="J7" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="36"/>
+      <c r="K7" s="45"/>
       <c r="L7" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="20" t="s">
+      <c r="N7" s="21" t="s">
         <v>50</v>
       </c>
       <c r="O7" s="2" t="s">
@@ -2502,7 +2534,7 @@
       </c>
     </row>
     <row r="8" ht="40" customHeight="1" spans="1:15">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="28" t="s">
         <v>52</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -2523,21 +2555,21 @@
       <c r="G8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="29"/>
+      <c r="H8" s="30"/>
       <c r="I8" s="9" t="s">
         <v>54</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="36"/>
+      <c r="K8" s="45"/>
       <c r="L8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N8" s="20" t="s">
+      <c r="N8" s="21" t="s">
         <v>56</v>
       </c>
       <c r="O8" s="2" t="s">
@@ -2545,7 +2577,7 @@
       </c>
     </row>
     <row r="9" ht="40" customHeight="1" spans="1:15">
-      <c r="A9" s="27"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7">
         <v>2</v>
@@ -2562,25 +2594,25 @@
       <c r="G9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="30"/>
+      <c r="H9" s="31"/>
       <c r="I9" s="9" t="s">
         <v>58</v>
       </c>
       <c r="J9" s="9"/>
-      <c r="K9" s="36"/>
+      <c r="K9" s="45"/>
       <c r="L9" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N9" s="20" t="s">
+      <c r="N9" s="21" t="s">
         <v>59</v>
       </c>
       <c r="O9" s="2"/>
     </row>
     <row r="10" ht="40" customHeight="1" spans="1:15">
-      <c r="A10" s="27"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7">
         <v>3</v>
@@ -2597,25 +2629,25 @@
       <c r="G10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="30"/>
+      <c r="H10" s="31"/>
       <c r="I10" s="9" t="s">
         <v>60</v>
       </c>
       <c r="J10" s="9"/>
-      <c r="K10" s="36"/>
+      <c r="K10" s="45"/>
       <c r="L10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N10" s="20" t="s">
+      <c r="N10" s="21" t="s">
         <v>61</v>
       </c>
       <c r="O10" s="2"/>
     </row>
     <row r="11" ht="40" customHeight="1" spans="1:15">
-      <c r="A11" s="27"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="7" t="s">
         <v>38</v>
       </c>
@@ -2634,21 +2666,21 @@
       <c r="G11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="30"/>
+      <c r="H11" s="31"/>
       <c r="I11" s="9" t="s">
         <v>54</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="36"/>
+      <c r="K11" s="45"/>
       <c r="L11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N11" s="20" t="s">
+      <c r="N11" s="21" t="s">
         <v>63</v>
       </c>
       <c r="O11" s="2" t="s">
@@ -2656,7 +2688,7 @@
       </c>
     </row>
     <row r="12" ht="40" customHeight="1" spans="1:15">
-      <c r="A12" s="27"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="7" t="s">
         <v>46</v>
       </c>
@@ -2675,21 +2707,21 @@
       <c r="G12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="30"/>
+      <c r="H12" s="31"/>
       <c r="I12" s="9" t="s">
         <v>54</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="36"/>
+      <c r="K12" s="45"/>
       <c r="L12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N12" s="20" t="s">
+      <c r="N12" s="21" t="s">
         <v>66</v>
       </c>
       <c r="O12" s="2" t="s">
@@ -2697,7 +2729,7 @@
       </c>
     </row>
     <row r="13" ht="40" customHeight="1" spans="1:15">
-      <c r="A13" s="27"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="7" t="s">
         <v>68</v>
       </c>
@@ -2710,19 +2742,19 @@
       <c r="E13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="31"/>
+      <c r="F13" s="32"/>
       <c r="G13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="32"/>
       <c r="J13" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="36"/>
+      <c r="K13" s="45"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="20" t="s">
+      <c r="N13" s="21" t="s">
         <v>72</v>
       </c>
       <c r="O13" s="2" t="s">
@@ -2730,10 +2762,10 @@
       </c>
     </row>
     <row r="14" ht="40" customHeight="1" spans="1:15">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="34" t="s">
         <v>75</v>
       </c>
       <c r="C14" s="7">
@@ -2743,69 +2775,142 @@
         <v>76</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N14" t="s">
-        <v>77</v>
-      </c>
-      <c r="O14" s="40"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="O14" s="2"/>
     </row>
     <row r="15" ht="40" customHeight="1" spans="1:15">
-      <c r="A15" s="27"/>
-      <c r="B15" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="A15" s="37"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="7">
         <v>2</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" ht="40" customHeight="1" spans="1:15">
+      <c r="A16" s="37"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" ht="40" customHeight="1" spans="1:15">
+      <c r="A17" s="37"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="7">
+        <v>4</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" s="7">
+        <v>300</v>
+      </c>
+      <c r="N17" t="s">
+        <v>77</v>
+      </c>
+      <c r="O17" s="51"/>
+    </row>
+    <row r="18" ht="40" customHeight="1" spans="1:15">
+      <c r="A18" s="40"/>
+      <c r="B18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="7">
+        <v>5</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="7" t="s">
+      <c r="E18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N15" s="20" t="s">
+      <c r="M18" s="7">
+        <v>300</v>
+      </c>
+      <c r="N18" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="O15" s="40"/>
+      <c r="O18" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A14:A18"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B14:B17"/>
     <mergeCell ref="H8:H13"/>
     <mergeCell ref="I3:I7"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="J8:J10"/>
-    <mergeCell ref="K3:K15"/>
+    <mergeCell ref="K3:K18"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="O8:O10"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="I17:J18"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2816,12 +2921,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3:F10"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3373,8 +3478,8 @@
       <c r="F27" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="G27" s="16" t="s">
-        <v>31</v>
+      <c r="G27" s="17">
+        <v>0.180555555555556</v>
       </c>
       <c r="H27" s="16" t="s">
         <v>114</v>
@@ -3383,7 +3488,7 @@
       <c r="J27" s="7"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:10">
-      <c r="A28" s="17"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="7">
         <v>2</v>
       </c>
@@ -3395,13 +3500,13 @@
         <v>147</v>
       </c>
       <c r="F28" s="11"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
       <c r="I28" s="11"/>
       <c r="J28" s="7"/>
     </row>
     <row r="29" ht="17" customHeight="1" spans="1:10">
-      <c r="A29" s="17"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="7">
         <v>3</v>
       </c>
@@ -3413,13 +3518,13 @@
         <v>149</v>
       </c>
       <c r="F29" s="11"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
       <c r="I29" s="11"/>
       <c r="J29" s="7"/>
     </row>
     <row r="30" ht="28" spans="1:10">
-      <c r="A30" s="17"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="7">
         <v>4</v>
       </c>
@@ -3431,13 +3536,13 @@
         <v>151</v>
       </c>
       <c r="F30" s="11"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
       <c r="I30" s="11"/>
       <c r="J30" s="7"/>
     </row>
     <row r="31" ht="37" customHeight="1" spans="1:10">
-      <c r="A31" s="17"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="7">
         <v>5</v>
       </c>
@@ -3449,31 +3554,31 @@
         <v>153</v>
       </c>
       <c r="F31" s="11"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
       <c r="I31" s="11"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" ht="33" customHeight="1" spans="1:10">
-      <c r="A32" s="17"/>
+    <row r="32" ht="35" customHeight="1" spans="1:10">
+      <c r="A32" s="18"/>
       <c r="B32" s="7">
         <v>6</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="D32" s="14"/>
+      <c r="D32" s="11"/>
       <c r="E32" s="9" t="s">
         <v>155</v>
       </c>
       <c r="F32" s="11"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
       <c r="I32" s="11"/>
       <c r="J32" s="7"/>
     </row>
     <row r="33" ht="33" customHeight="1" spans="1:10">
-      <c r="A33" s="17"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="7">
         <v>7</v>
       </c>
@@ -3485,13 +3590,13 @@
         <v>157</v>
       </c>
       <c r="F33" s="11"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
       <c r="I33" s="11"/>
       <c r="J33" s="7"/>
     </row>
     <row r="34" ht="33" customHeight="1" spans="1:10">
-      <c r="A34" s="17"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="7">
         <v>8</v>
       </c>
@@ -3502,56 +3607,38 @@
       <c r="E34" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
       <c r="I34" s="11"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" ht="33" customHeight="1" spans="1:10">
-      <c r="A35" s="18"/>
+    <row r="35" spans="1:10">
+      <c r="A35" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="B35" s="7">
-        <v>9</v>
-      </c>
-      <c r="C35" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="D35" s="11"/>
+      <c r="D35" s="8" t="s">
+        <v>92</v>
+      </c>
       <c r="E35" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="7"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" s="7">
-        <v>1</v>
-      </c>
-      <c r="C36" s="19" t="s">
+      <c r="F35" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H36" s="7" t="s">
+      <c r="G35" s="10">
+        <v>0.222222222222222</v>
+      </c>
+      <c r="H35" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="I36" s="8" t="str">
+      <c r="I35" s="8" t="str">
         <f>I3</f>
         <v>PUT front_film
 PUT front_film/film/_mapping 
@@ -3573,14 +3660,32 @@
         }
 }</v>
       </c>
-      <c r="J36" s="7"/>
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7">
+        <v>2</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="7"/>
       <c r="B37" s="7">
-        <v>2</v>
-      </c>
-      <c r="C37" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="20" t="s">
         <v>165</v>
       </c>
       <c r="D37" s="11"/>
@@ -3591,14 +3696,14 @@
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="11"/>
-      <c r="J37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="7"/>
       <c r="B38" s="7">
-        <v>3</v>
-      </c>
-      <c r="C38" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="20" t="s">
         <v>167</v>
       </c>
       <c r="D38" s="11"/>
@@ -3609,14 +3714,14 @@
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="11"/>
-      <c r="J38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="7"/>
       <c r="B39" s="7">
-        <v>4</v>
-      </c>
-      <c r="C39" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="20" t="s">
         <v>169</v>
       </c>
       <c r="D39" s="11"/>
@@ -3627,14 +3732,14 @@
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="11"/>
-      <c r="J39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="7"/>
       <c r="B40" s="7">
-        <v>5</v>
-      </c>
-      <c r="C40" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="20" t="s">
         <v>171</v>
       </c>
       <c r="D40" s="11"/>
@@ -3645,14 +3750,14 @@
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="11"/>
-      <c r="J40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="7"/>
       <c r="B41" s="7">
-        <v>6</v>
-      </c>
-      <c r="C41" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="20" t="s">
         <v>173</v>
       </c>
       <c r="D41" s="11"/>
@@ -3663,43 +3768,28 @@
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="11"/>
-      <c r="J41" s="20"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="7"/>
       <c r="B42" s="7">
-        <v>7</v>
-      </c>
-      <c r="C42" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="D42" s="11"/>
+      <c r="D42" s="14"/>
       <c r="E42" s="9" t="s">
         <v>176</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7">
-        <v>8</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="20"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="21"/>
+    </row>
+    <row r="43" spans="9:9">
+      <c r="I43" s="2"/>
     </row>
     <row r="44" spans="9:9">
       <c r="I44" s="2"/>
@@ -3715,9 +3805,6 @@
     </row>
     <row r="48" spans="9:9">
       <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="9:9">
-      <c r="I49" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="31">
@@ -3726,32 +3813,32 @@
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A21"/>
     <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A27:A35"/>
-    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A35:A42"/>
     <mergeCell ref="D3:D21"/>
-    <mergeCell ref="D22:D32"/>
-    <mergeCell ref="D36:D43"/>
+    <mergeCell ref="D22:D34"/>
+    <mergeCell ref="D35:D42"/>
     <mergeCell ref="F3:F10"/>
     <mergeCell ref="F11:F14"/>
     <mergeCell ref="F15:F21"/>
     <mergeCell ref="F22:F26"/>
-    <mergeCell ref="F27:F35"/>
-    <mergeCell ref="F36:F43"/>
+    <mergeCell ref="F27:F34"/>
+    <mergeCell ref="F35:F42"/>
     <mergeCell ref="G3:G10"/>
     <mergeCell ref="G11:G14"/>
     <mergeCell ref="G15:G21"/>
     <mergeCell ref="G22:G26"/>
-    <mergeCell ref="G27:G35"/>
-    <mergeCell ref="G36:G43"/>
+    <mergeCell ref="G27:G34"/>
+    <mergeCell ref="G35:G42"/>
     <mergeCell ref="H3:H10"/>
     <mergeCell ref="H11:H14"/>
     <mergeCell ref="H15:H21"/>
     <mergeCell ref="H22:H26"/>
-    <mergeCell ref="H27:H35"/>
-    <mergeCell ref="H36:H43"/>
+    <mergeCell ref="H27:H34"/>
+    <mergeCell ref="H35:H42"/>
     <mergeCell ref="I3:I21"/>
-    <mergeCell ref="I22:I35"/>
-    <mergeCell ref="I36:I43"/>
+    <mergeCell ref="I22:I34"/>
+    <mergeCell ref="I35:I42"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/main/resources/爬虫&Spark作业执行.xlsx
+++ b/src/main/resources/爬虫&Spark作业执行.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18540" windowHeight="7730" tabRatio="506" activeTab="1"/>
+    <workbookView windowWidth="18540" windowHeight="7320" tabRatio="506" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="爬虫执行汇总" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181">
   <si>
     <t>爬虫执行汇总表</t>
   </si>
@@ -537,10 +537,27 @@
     <t>豆瓣评分</t>
   </si>
   <si>
-    <t>豆瓣</t>
-  </si>
-  <si>
-    <t>根据名称爬取豆瓣评分</t>
+    <t>豆瓣
+电影</t>
+  </si>
+  <si>
+    <t>每天
+增量</t>
+  </si>
+  <si>
+    <t>根据电影名称爬取豆瓣评分</t>
+  </si>
+  <si>
+    <t>豆瓣
+电视剧</t>
+  </si>
+  <si>
+    <t>豆瓣
+综艺</t>
+  </si>
+  <si>
+    <t>豆瓣
+猫眼</t>
   </si>
   <si>
     <t>出品公司</t>
@@ -815,6 +832,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>累计点击量最多作者排名</t>
@@ -902,11 +920,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -949,13 +967,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -970,11 +981,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -985,43 +1017,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1041,15 +1040,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1063,16 +1064,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1083,6 +1101,12 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1106,121 +1130,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1238,7 +1148,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1250,7 +1196,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1262,36 +1286,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1405,11 +1429,33 @@
         <color auto="1"/>
       </diagonal>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border diagonalUp="1">
       <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1426,17 +1472,26 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="1">
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal style="thin">
         <color auto="1"/>
@@ -1444,7 +1499,9 @@
     </border>
     <border diagonalUp="1">
       <left/>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal style="thin">
@@ -1489,56 +1546,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1569,6 +1576,56 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1583,10 +1640,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1595,137 +1652,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1828,23 +1885,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -1867,25 +1915,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2241,10 +2292,10 @@
   <sheetPr/>
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:A18"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2357,11 +2408,11 @@
       <c r="H3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="42" t="s">
+      <c r="I3" s="38"/>
+      <c r="J3" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="40" t="s">
         <v>23</v>
       </c>
       <c r="L3" s="7" t="s">
@@ -2398,11 +2449,11 @@
       <c r="H4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="41"/>
-      <c r="J4" s="44" t="s">
+      <c r="I4" s="38"/>
+      <c r="J4" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="45"/>
+      <c r="K4" s="42"/>
       <c r="L4" s="7" t="s">
         <v>31</v>
       </c>
@@ -2437,9 +2488,9 @@
       <c r="H5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="41"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="45"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="42"/>
       <c r="L5" s="7" t="s">
         <v>31</v>
       </c>
@@ -2474,11 +2525,11 @@
       <c r="H6" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="41"/>
-      <c r="J6" s="42" t="s">
+      <c r="I6" s="38"/>
+      <c r="J6" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="45"/>
+      <c r="K6" s="42"/>
       <c r="L6" s="7" t="s">
         <v>31</v>
       </c>
@@ -2515,11 +2566,11 @@
       <c r="H7" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42" t="s">
+      <c r="I7" s="38"/>
+      <c r="J7" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="45"/>
+      <c r="K7" s="42"/>
       <c r="L7" s="7" t="s">
         <v>31</v>
       </c>
@@ -2562,7 +2613,7 @@
       <c r="J8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="45"/>
+      <c r="K8" s="42"/>
       <c r="L8" s="7" t="s">
         <v>31</v>
       </c>
@@ -2599,7 +2650,7 @@
         <v>58</v>
       </c>
       <c r="J9" s="9"/>
-      <c r="K9" s="45"/>
+      <c r="K9" s="42"/>
       <c r="L9" s="7" t="s">
         <v>31</v>
       </c>
@@ -2634,7 +2685,7 @@
         <v>60</v>
       </c>
       <c r="J10" s="9"/>
-      <c r="K10" s="45"/>
+      <c r="K10" s="42"/>
       <c r="L10" s="7" t="s">
         <v>31</v>
       </c>
@@ -2673,7 +2724,7 @@
       <c r="J11" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="45"/>
+      <c r="K11" s="42"/>
       <c r="L11" s="7" t="s">
         <v>31</v>
       </c>
@@ -2714,7 +2765,7 @@
       <c r="J12" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="45"/>
+      <c r="K12" s="42"/>
       <c r="L12" s="7" t="s">
         <v>31</v>
       </c>
@@ -2751,8 +2802,10 @@
       <c r="J13" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="45"/>
-      <c r="L13" s="7"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="M13" s="7"/>
       <c r="N13" s="21" t="s">
         <v>72</v>
@@ -2765,136 +2818,147 @@
       <c r="A14" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="16" t="s">
         <v>75</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="O14" s="2"/>
+      <c r="E14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="7">
+        <v>800</v>
+      </c>
+      <c r="N14" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="O14" s="47"/>
     </row>
     <row r="15" ht="40" customHeight="1" spans="1:15">
-      <c r="A15" s="37"/>
-      <c r="B15" s="38"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="7">
         <v>2</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>76</v>
+      <c r="D15" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="7"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="M15" s="7"/>
-      <c r="O15" s="2"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="47"/>
     </row>
     <row r="16" ht="40" customHeight="1" spans="1:15">
-      <c r="A16" s="37"/>
-      <c r="B16" s="38"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="7">
         <v>3</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>76</v>
+      <c r="D16" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="E16" s="7"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="7"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="M16" s="7"/>
-      <c r="O16" s="2"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="47"/>
     </row>
     <row r="17" ht="40" customHeight="1" spans="1:15">
-      <c r="A17" s="37"/>
-      <c r="B17" s="39"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="7">
         <v>4</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="10">
-        <v>0.5</v>
-      </c>
+      <c r="D17" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
       <c r="G17" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H17" s="7"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="45"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="42"/>
       <c r="L17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M17" s="7">
-        <v>300</v>
-      </c>
-      <c r="N17" t="s">
-        <v>77</v>
-      </c>
-      <c r="O17" s="51"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="47"/>
     </row>
     <row r="18" ht="40" customHeight="1" spans="1:15">
-      <c r="A18" s="40"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C18" s="7">
         <v>5</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F18" s="10">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>53</v>
+        <v>0.715277777777778</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="H18" s="7"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="54"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="52"/>
       <c r="L18" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M18" s="7">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N18" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="O18" s="51"/>
+        <v>84</v>
+      </c>
+      <c r="O18" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A13"/>
@@ -2902,15 +2966,17 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B14:B17"/>
+    <mergeCell ref="G14:G16"/>
     <mergeCell ref="H8:H13"/>
     <mergeCell ref="I3:I7"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="J8:J10"/>
-    <mergeCell ref="K3:K18"/>
+    <mergeCell ref="K3:K13"/>
+    <mergeCell ref="K14:K18"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="O8:O10"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="I17:J18"/>
+    <mergeCell ref="O14:O18"/>
+    <mergeCell ref="I14:J18"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2924,9 +2990,9 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="I35" sqref="I35:I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2945,7 +3011,7 @@
   <sheetData>
     <row r="1" ht="32" customHeight="1" spans="1:10">
       <c r="A1" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2965,57 +3031,57 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G3" s="10">
         <v>0.365972222222222</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="J3" s="7"/>
     </row>
@@ -3025,11 +3091,11 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="9" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="7"/>
@@ -3043,11 +3109,11 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="7"/>
@@ -3061,11 +3127,11 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="7"/>
@@ -3079,11 +3145,11 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="9" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="7"/>
@@ -3097,11 +3163,11 @@
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="7"/>
@@ -3115,11 +3181,11 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="9" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="7"/>
@@ -3133,11 +3199,11 @@
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="7"/>
@@ -3147,26 +3213,26 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B11" s="7">
         <v>1</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="9" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G11" s="10">
         <v>0.260416666666667</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="7"/>
@@ -3177,11 +3243,11 @@
         <v>2</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="9" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="7"/>
@@ -3195,11 +3261,11 @@
         <v>3</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="9" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="7"/>
@@ -3213,11 +3279,11 @@
         <v>4</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="9" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="7"/>
@@ -3227,26 +3293,26 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B15" s="7">
         <v>1</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="9" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G15" s="10">
         <v>0.3125</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="7"/>
@@ -3257,11 +3323,11 @@
         <v>2</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="7"/>
@@ -3275,11 +3341,11 @@
         <v>3</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="9" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="7"/>
@@ -3293,11 +3359,11 @@
         <v>4</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="9" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="7"/>
@@ -3311,11 +3377,11 @@
         <v>5</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="9" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="7"/>
@@ -3329,11 +3395,11 @@
         <v>6</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="9" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="7"/>
@@ -3347,11 +3413,11 @@
         <v>7</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="9" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="7"/>
@@ -3367,25 +3433,25 @@
         <v>1</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G22" s="10">
-        <v>0.388888888888889</v>
+        <v>0.25</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J22" s="7"/>
     </row>
@@ -3395,11 +3461,11 @@
         <v>2</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="9" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="7"/>
@@ -3413,11 +3479,11 @@
         <v>3</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="9" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="7"/>
@@ -3431,7 +3497,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="9" t="s">
@@ -3449,7 +3515,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="9" t="s">
@@ -3469,20 +3535,20 @@
         <v>1</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="9" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G27" s="17">
         <v>0.180555555555556</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I27" s="11"/>
       <c r="J27" s="7"/>
@@ -3493,11 +3559,11 @@
         <v>2</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="9" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="18"/>
@@ -3511,11 +3577,11 @@
         <v>3</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="18"/>
@@ -3529,11 +3595,11 @@
         <v>4</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="9" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="18"/>
@@ -3547,11 +3613,11 @@
         <v>5</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="18"/>
@@ -3565,11 +3631,11 @@
         <v>6</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="9" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="18"/>
@@ -3583,11 +3649,11 @@
         <v>7</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="9" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="18"/>
@@ -3601,11 +3667,11 @@
         <v>8</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="9" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F34" s="14"/>
       <c r="G34" s="19"/>
@@ -3621,22 +3687,22 @@
         <v>1</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G35" s="10">
         <v>0.222222222222222</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I35" s="8" t="str">
         <f>I3</f>
@@ -3668,11 +3734,11 @@
         <v>2</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="9" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="7"/>
@@ -3686,11 +3752,11 @@
         <v>3</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="9" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="7"/>
@@ -3704,11 +3770,11 @@
         <v>4</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="9" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="7"/>
@@ -3722,11 +3788,11 @@
         <v>5</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="9" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="7"/>
@@ -3740,11 +3806,11 @@
         <v>6</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="9" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="7"/>
@@ -3758,11 +3824,11 @@
         <v>7</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="9" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="7"/>
@@ -3776,11 +3842,11 @@
         <v>8</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="9" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="7"/>

--- a/src/main/resources/爬虫&Spark作业执行.xlsx
+++ b/src/main/resources/爬虫&Spark作业执行.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18540" windowHeight="7320" tabRatio="506" activeTab="1"/>
+    <workbookView windowWidth="18540" windowHeight="7730" tabRatio="506"/>
   </bookViews>
   <sheets>
     <sheet name="爬虫执行汇总" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184">
   <si>
     <t>爬虫执行汇总表</t>
   </si>
@@ -545,6 +545,9 @@
 增量</t>
   </si>
   <si>
+    <t>crawler_douban_score</t>
+  </si>
+  <si>
     <t>根据电影名称爬取豆瓣评分</t>
   </si>
   <si>
@@ -552,18 +555,23 @@
 电视剧</t>
   </si>
   <si>
+    <t>根据电视剧名称爬取豆瓣评分</t>
+  </si>
+  <si>
     <t>豆瓣
-综艺</t>
-  </si>
-  <si>
-    <t>豆瓣
-猫眼</t>
+图书</t>
+  </si>
+  <si>
+    <t>根据图书名称爬取豆瓣评分</t>
   </si>
   <si>
     <t>出品公司</t>
   </si>
   <si>
     <t>百度</t>
+  </si>
+  <si>
+    <t>baidu_info</t>
   </si>
   <si>
     <t>根据名称爬取出品公司</t>
@@ -919,9 +927,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -967,6 +975,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -982,109 +1090,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1097,7 +1105,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1130,7 +1138,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,25 +1192,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1178,25 +1294,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1208,114 +1312,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1429,15 +1437,6 @@
         <color auto="1"/>
       </diagonal>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
     <border diagonalUp="1">
       <left style="thin">
         <color auto="1"/>
@@ -1535,17 +1534,11 @@
       </diagonal>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1561,6 +1554,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1586,39 +1609,15 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1640,10 +1639,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1652,133 +1651,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1885,14 +1884,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -1915,17 +1914,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1934,9 +1936,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2290,12 +2289,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2836,7 +2835,9 @@
       <c r="G14" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="34" t="s">
+        <v>78</v>
+      </c>
       <c r="I14" s="44"/>
       <c r="J14" s="45"/>
       <c r="K14" s="42"/>
@@ -2844,139 +2845,133 @@
         <v>31</v>
       </c>
       <c r="M14" s="7">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N14" s="46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O14" s="47"/>
     </row>
     <row r="15" ht="40" customHeight="1" spans="1:15">
-      <c r="A15" s="34"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="18"/>
       <c r="C15" s="7">
         <v>2</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="21"/>
+        <v>80</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0.583333333333333</v>
+      </c>
       <c r="G15" s="18"/>
-      <c r="H15" s="7"/>
+      <c r="H15" s="36"/>
       <c r="I15" s="48"/>
       <c r="J15" s="49"/>
       <c r="K15" s="42"/>
       <c r="L15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="46"/>
+      <c r="M15" s="7">
+        <v>201</v>
+      </c>
+      <c r="N15" s="46" t="s">
+        <v>81</v>
+      </c>
       <c r="O15" s="47"/>
     </row>
     <row r="16" ht="40" customHeight="1" spans="1:15">
-      <c r="A16" s="34"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="18"/>
       <c r="C16" s="7">
         <v>3</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="21"/>
+        <v>82</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0.666666666666667</v>
+      </c>
       <c r="G16" s="19"/>
-      <c r="H16" s="16"/>
+      <c r="H16" s="36"/>
       <c r="I16" s="48"/>
       <c r="J16" s="49"/>
       <c r="K16" s="42"/>
       <c r="L16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="7"/>
-      <c r="N16" s="46"/>
+      <c r="M16" s="7">
+        <v>202</v>
+      </c>
+      <c r="N16" s="46" t="s">
+        <v>83</v>
+      </c>
       <c r="O16" s="47"/>
     </row>
     <row r="17" ht="40" customHeight="1" spans="1:15">
-      <c r="A17" s="34"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="C17" s="7">
         <v>4</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="42"/>
+      <c r="D17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0.715277777777778</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="50"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="52"/>
       <c r="L17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M17" s="7"/>
-      <c r="N17" s="46"/>
+      <c r="M17" s="7">
+        <v>500</v>
+      </c>
+      <c r="N17" s="21" t="s">
+        <v>87</v>
+      </c>
       <c r="O17" s="47"/>
     </row>
-    <row r="18" ht="40" customHeight="1" spans="1:15">
-      <c r="A18" s="37"/>
-      <c r="B18" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="7">
-        <v>5</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="10">
-        <v>0.715277777777778</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M18" s="7">
-        <v>500</v>
-      </c>
-      <c r="N18" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="O18" s="47"/>
-    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A14:A17"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="G14:G16"/>
     <mergeCell ref="H8:H13"/>
+    <mergeCell ref="H14:H16"/>
     <mergeCell ref="I3:I7"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="J8:J10"/>
     <mergeCell ref="K3:K13"/>
-    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="K14:K17"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="O8:O10"/>
-    <mergeCell ref="O14:O18"/>
-    <mergeCell ref="I14:J18"/>
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="I14:J17"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2989,8 +2984,8 @@
   <sheetPr/>
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="I35" sqref="I35:I42"/>
     </sheetView>
@@ -3011,7 +3006,7 @@
   <sheetData>
     <row r="1" ht="32" customHeight="1" spans="1:10">
       <c r="A1" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3031,57 +3026,57 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G3" s="10">
         <v>0.365972222222222</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J3" s="7"/>
     </row>
@@ -3091,11 +3086,11 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="7"/>
@@ -3109,11 +3104,11 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="7"/>
@@ -3127,11 +3122,11 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="7"/>
@@ -3145,11 +3140,11 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="7"/>
@@ -3163,11 +3158,11 @@
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="9" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="7"/>
@@ -3181,11 +3176,11 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="7"/>
@@ -3199,11 +3194,11 @@
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="7"/>
@@ -3213,26 +3208,26 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B11" s="7">
         <v>1</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="9" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G11" s="10">
         <v>0.260416666666667</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="7"/>
@@ -3243,11 +3238,11 @@
         <v>2</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="7"/>
@@ -3261,11 +3256,11 @@
         <v>3</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="7"/>
@@ -3279,11 +3274,11 @@
         <v>4</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="7"/>
@@ -3293,26 +3288,26 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B15" s="7">
         <v>1</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G15" s="10">
         <v>0.3125</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="7"/>
@@ -3323,11 +3318,11 @@
         <v>2</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="7"/>
@@ -3341,11 +3336,11 @@
         <v>3</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="7"/>
@@ -3359,11 +3354,11 @@
         <v>4</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="7"/>
@@ -3377,11 +3372,11 @@
         <v>5</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="9" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="7"/>
@@ -3395,11 +3390,11 @@
         <v>6</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="9" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="7"/>
@@ -3413,11 +3408,11 @@
         <v>7</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="7"/>
@@ -3433,25 +3428,25 @@
         <v>1</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G22" s="10">
         <v>0.25</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="J22" s="7"/>
     </row>
@@ -3461,11 +3456,11 @@
         <v>2</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="9" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="7"/>
@@ -3479,11 +3474,11 @@
         <v>3</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="9" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="7"/>
@@ -3497,7 +3492,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="9" t="s">
@@ -3515,7 +3510,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="9" t="s">
@@ -3535,20 +3530,20 @@
         <v>1</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="9" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G27" s="17">
         <v>0.180555555555556</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I27" s="11"/>
       <c r="J27" s="7"/>
@@ -3559,11 +3554,11 @@
         <v>2</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="9" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="18"/>
@@ -3577,11 +3572,11 @@
         <v>3</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="9" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="18"/>
@@ -3595,11 +3590,11 @@
         <v>4</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="9" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="18"/>
@@ -3613,11 +3608,11 @@
         <v>5</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="9" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="18"/>
@@ -3631,11 +3626,11 @@
         <v>6</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="9" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="18"/>
@@ -3649,11 +3644,11 @@
         <v>7</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="9" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="18"/>
@@ -3667,11 +3662,11 @@
         <v>8</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="9" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F34" s="14"/>
       <c r="G34" s="19"/>
@@ -3687,22 +3682,22 @@
         <v>1</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G35" s="10">
         <v>0.222222222222222</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I35" s="8" t="str">
         <f>I3</f>
@@ -3734,11 +3729,11 @@
         <v>2</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="7"/>
@@ -3752,11 +3747,11 @@
         <v>3</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="9" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="7"/>
@@ -3770,11 +3765,11 @@
         <v>4</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="7"/>
@@ -3788,11 +3783,11 @@
         <v>5</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="9" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="7"/>
@@ -3806,11 +3801,11 @@
         <v>6</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="9" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="7"/>
@@ -3824,11 +3819,11 @@
         <v>7</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="9" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="7"/>
@@ -3842,11 +3837,11 @@
         <v>8</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="9" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="7"/>

--- a/src/main/resources/爬虫&Spark作业执行.xlsx
+++ b/src/main/resources/爬虫&Spark作业执行.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18540" windowHeight="7730" tabRatio="506"/>
+    <workbookView windowWidth="18320" windowHeight="6760" tabRatio="506"/>
   </bookViews>
   <sheets>
     <sheet name="爬虫执行汇总" sheetId="2" r:id="rId1"/>
@@ -928,9 +928,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -968,7 +968,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -982,12 +982,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1003,32 +1011,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1042,6 +1058,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1051,63 +1104,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1138,7 +1138,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1150,13 +1174,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1168,25 +1216,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1198,109 +1240,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1318,7 +1264,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1534,11 +1534,17 @@
       </diagonal>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1558,32 +1564,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1592,17 +1579,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1631,6 +1607,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1639,10 +1639,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1651,137 +1651,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1884,14 +1884,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -2292,9 +2286,9 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2407,11 +2401,11 @@
       <c r="H3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="39" t="s">
+      <c r="I3" s="36"/>
+      <c r="J3" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="K3" s="38" t="s">
         <v>23</v>
       </c>
       <c r="L3" s="7" t="s">
@@ -2448,11 +2442,11 @@
       <c r="H4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="41" t="s">
+      <c r="I4" s="36"/>
+      <c r="J4" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="42"/>
+      <c r="K4" s="40"/>
       <c r="L4" s="7" t="s">
         <v>31</v>
       </c>
@@ -2487,9 +2481,9 @@
       <c r="H5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="38"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="42"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="40"/>
       <c r="L5" s="7" t="s">
         <v>31</v>
       </c>
@@ -2524,11 +2518,11 @@
       <c r="H6" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="38"/>
-      <c r="J6" s="39" t="s">
+      <c r="I6" s="36"/>
+      <c r="J6" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="42"/>
+      <c r="K6" s="40"/>
       <c r="L6" s="7" t="s">
         <v>31</v>
       </c>
@@ -2565,11 +2559,11 @@
       <c r="H7" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="39" t="s">
+      <c r="I7" s="36"/>
+      <c r="J7" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="42"/>
+      <c r="K7" s="40"/>
       <c r="L7" s="7" t="s">
         <v>31</v>
       </c>
@@ -2612,7 +2606,7 @@
       <c r="J8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="42"/>
+      <c r="K8" s="40"/>
       <c r="L8" s="7" t="s">
         <v>31</v>
       </c>
@@ -2649,7 +2643,7 @@
         <v>58</v>
       </c>
       <c r="J9" s="9"/>
-      <c r="K9" s="42"/>
+      <c r="K9" s="40"/>
       <c r="L9" s="7" t="s">
         <v>31</v>
       </c>
@@ -2684,7 +2678,7 @@
         <v>60</v>
       </c>
       <c r="J10" s="9"/>
-      <c r="K10" s="42"/>
+      <c r="K10" s="40"/>
       <c r="L10" s="7" t="s">
         <v>31</v>
       </c>
@@ -2723,7 +2717,7 @@
       <c r="J11" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="42"/>
+      <c r="K11" s="40"/>
       <c r="L11" s="7" t="s">
         <v>31</v>
       </c>
@@ -2764,7 +2758,7 @@
       <c r="J12" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="42"/>
+      <c r="K12" s="40"/>
       <c r="L12" s="7" t="s">
         <v>31</v>
       </c>
@@ -2801,7 +2795,7 @@
       <c r="J13" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="42"/>
+      <c r="K13" s="40"/>
       <c r="L13" s="7" t="s">
         <v>31</v>
       </c>
@@ -2835,25 +2829,25 @@
       <c r="G14" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="34" t="s">
+      <c r="H14" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I14" s="44"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="40"/>
       <c r="L14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M14" s="7">
         <v>200</v>
       </c>
-      <c r="N14" s="46" t="s">
+      <c r="N14" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="O14" s="47"/>
+      <c r="O14" s="45"/>
     </row>
     <row r="15" ht="40" customHeight="1" spans="1:15">
-      <c r="A15" s="35"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="18"/>
       <c r="C15" s="7">
         <v>2</v>
@@ -2868,23 +2862,23 @@
         <v>0.583333333333333</v>
       </c>
       <c r="G15" s="18"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="42"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="40"/>
       <c r="L15" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M15" s="7">
         <v>201</v>
       </c>
-      <c r="N15" s="46" t="s">
+      <c r="N15" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="O15" s="47"/>
+      <c r="O15" s="45"/>
     </row>
     <row r="16" ht="40" customHeight="1" spans="1:15">
-      <c r="A16" s="35"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="18"/>
       <c r="C16" s="7">
         <v>3</v>
@@ -2899,23 +2893,23 @@
         <v>0.666666666666667</v>
       </c>
       <c r="G16" s="19"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="42"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="40"/>
       <c r="L16" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M16" s="7">
         <v>202</v>
       </c>
-      <c r="N16" s="46" t="s">
+      <c r="N16" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="O16" s="47"/>
+      <c r="O16" s="45"/>
     </row>
     <row r="17" ht="40" customHeight="1" spans="1:15">
-      <c r="A17" s="37"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="7" t="s">
         <v>84</v>
       </c>
@@ -2937,9 +2931,9 @@
       <c r="H17" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="I17" s="50"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="52"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="50"/>
       <c r="L17" s="7" t="s">
         <v>31</v>
       </c>
@@ -2949,7 +2943,7 @@
       <c r="N17" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="O17" s="47"/>
+      <c r="O17" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="19">

--- a/src/main/resources/爬虫&Spark作业执行.xlsx
+++ b/src/main/resources/爬虫&Spark作业执行.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18320" windowHeight="6760" tabRatio="506"/>
+    <workbookView windowWidth="19100" windowHeight="7730" tabRatio="506" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="爬虫执行汇总" sheetId="2" r:id="rId1"/>
     <sheet name="Spark作业计划" sheetId="1" r:id="rId2"/>
+    <sheet name="交互式查询" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187">
   <si>
     <t>爬虫执行汇总表</t>
   </si>
@@ -921,6 +922,37 @@
   <si>
     <t>movie_showInfo_pie</t>
   </si>
+  <si>
+    <t>索引建立</t>
+  </si>
+  <si>
+    <t>PUT search_index
+PUT search_index/search_type/_mapping 
+{
+  "properties": {
+          "timeLine": {
+            "type": "date",
+            "format": "yyyy-MM-dd HH:mm:ss||yyyy-MM-dd||epoch_millis"
+          },
+          "addTime": {
+            "type": "date",
+            "format": "yyyy-MM-dd HH:mm:ss||yyyy-MM-dd||epoch_millis"
+          },
+          "taskid": {
+            "type": "long"
+          },
+          "category": {
+            "type": "keyword"
+          },
+          "numvalue": {
+            "type": "double"
+          }
+        }
+}</t>
+  </si>
+  <si>
+    <t>交互式查询分析结果</t>
+  </si>
 </sst>
 </file>
 
@@ -929,11 +961,19 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -988,6 +1028,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -995,9 +1091,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1020,7 +1122,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1029,37 +1131,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1074,40 +1145,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1138,7 +1178,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1150,25 +1262,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1180,19 +1334,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1204,121 +1358,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1534,6 +1574,30 @@
       </diagonal>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1545,6 +1609,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1566,20 +1641,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1607,30 +1671,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1639,10 +1679,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1651,137 +1691,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1791,11 +1831,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1803,6 +1843,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1851,19 +1897,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2285,17 +2331,17 @@
   <sheetPr/>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3:I7"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="5.09090909090909" customWidth="1"/>
-    <col min="2" max="2" width="9.36363636363636" style="22" customWidth="1"/>
-    <col min="3" max="3" width="4.72727272727273" style="22" customWidth="1"/>
+    <col min="2" max="2" width="9.36363636363636" style="24" customWidth="1"/>
+    <col min="3" max="3" width="4.72727272727273" style="24" customWidth="1"/>
     <col min="4" max="4" width="8.36363636363636" customWidth="1"/>
     <col min="5" max="5" width="7.27272727272727" customWidth="1"/>
     <col min="6" max="6" width="7.72727272727273" customWidth="1"/>
@@ -2311,639 +2357,639 @@
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1" spans="1:15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="49" customHeight="1" spans="1:15">
-      <c r="A2" s="25" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+    </row>
+    <row r="2" s="3" customFormat="1" ht="49" customHeight="1" spans="1:15">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="N2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="O2" s="29" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" ht="40" customHeight="1" spans="1:15">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="9">
         <v>1</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="31">
         <v>0.427083333333333</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="37" t="s">
+      <c r="I3" s="38"/>
+      <c r="J3" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" ht="40" customHeight="1" spans="1:15">
-      <c r="A4" s="28"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7">
+      <c r="A4" s="30"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9">
         <v>2</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="31">
         <v>0.427083333333333</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="36"/>
-      <c r="J4" s="39" t="s">
+      <c r="I4" s="38"/>
+      <c r="J4" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="40"/>
-      <c r="L4" s="7" t="s">
+      <c r="K4" s="42"/>
+      <c r="L4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" ht="40" customHeight="1" spans="1:15">
-      <c r="A5" s="28"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7">
+      <c r="A5" s="30"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9">
         <v>3</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="31">
         <v>0.427083333333333</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="36"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="7" t="s">
+      <c r="I5" s="38"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="21" t="s">
+      <c r="N5" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="2"/>
+      <c r="O5" s="4"/>
     </row>
     <row r="6" ht="40" customHeight="1" spans="1:15">
-      <c r="A6" s="28"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="9">
         <v>4</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="31">
         <v>0.427083333333333</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="36"/>
-      <c r="J6" s="37" t="s">
+      <c r="I6" s="38"/>
+      <c r="J6" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="40"/>
-      <c r="L6" s="7" t="s">
+      <c r="K6" s="42"/>
+      <c r="L6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="21" t="s">
+      <c r="N6" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="O6" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" ht="44" customHeight="1" spans="1:15">
-      <c r="A7" s="28"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="9">
         <v>5</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="31">
         <v>0.59375</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="37" t="s">
+      <c r="I7" s="38"/>
+      <c r="J7" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="7" t="s">
+      <c r="K7" s="42"/>
+      <c r="L7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="21" t="s">
+      <c r="N7" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" ht="40" customHeight="1" spans="1:15">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="9">
         <v>1</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="12">
         <v>0.0416666666666667</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="9" t="s">
+      <c r="H8" s="32"/>
+      <c r="I8" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="40"/>
-      <c r="L8" s="7" t="s">
+      <c r="K8" s="42"/>
+      <c r="L8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N8" s="21" t="s">
+      <c r="N8" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="O8" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" ht="40" customHeight="1" spans="1:15">
-      <c r="A9" s="28"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7">
+      <c r="A9" s="30"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9">
         <v>2</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="12">
         <v>0.00694444444444444</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="9" t="s">
+      <c r="H9" s="33"/>
+      <c r="I9" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="7" t="s">
+      <c r="J9" s="11"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N9" s="21" t="s">
+      <c r="N9" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="O9" s="2"/>
+      <c r="O9" s="4"/>
     </row>
     <row r="10" ht="40" customHeight="1" spans="1:15">
-      <c r="A10" s="28"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7">
+      <c r="A10" s="30"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9">
         <v>3</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="12">
         <v>0.0416666666666667</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="9" t="s">
+      <c r="H10" s="33"/>
+      <c r="I10" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="7" t="s">
+      <c r="J10" s="11"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N10" s="21" t="s">
+      <c r="N10" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="O10" s="2"/>
+      <c r="O10" s="4"/>
     </row>
     <row r="11" ht="40" customHeight="1" spans="1:15">
-      <c r="A11" s="28"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="30"/>
+      <c r="B11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="9">
         <v>4</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="12">
         <v>0.00694444444444444</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="9" t="s">
+      <c r="H11" s="33"/>
+      <c r="I11" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="40"/>
-      <c r="L11" s="7" t="s">
+      <c r="K11" s="42"/>
+      <c r="L11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="M11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N11" s="21" t="s">
+      <c r="N11" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="O11" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="12" ht="40" customHeight="1" spans="1:15">
-      <c r="A12" s="28"/>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="30"/>
+      <c r="B12" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="9">
         <v>5</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="10">
-        <v>0.4375</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="E12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0.229166666666667</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="31"/>
-      <c r="I12" s="9" t="s">
+      <c r="H12" s="33"/>
+      <c r="I12" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="40"/>
-      <c r="L12" s="7" t="s">
+      <c r="K12" s="42"/>
+      <c r="L12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="M12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N12" s="21" t="s">
+      <c r="N12" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="O12" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13" ht="40" customHeight="1" spans="1:15">
-      <c r="A13" s="28"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="30"/>
+      <c r="B13" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="9">
         <v>6</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="7" t="s">
+      <c r="F13" s="34"/>
+      <c r="G13" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="9" t="s">
+      <c r="H13" s="33"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="40"/>
-      <c r="L13" s="7" t="s">
+      <c r="K13" s="42"/>
+      <c r="L13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="21" t="s">
+      <c r="M13" s="9"/>
+      <c r="N13" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="O13" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="14" ht="40" customHeight="1" spans="1:15">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="9">
         <v>1</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="12">
         <v>0.5</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="I14" s="42"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="7" t="s">
+      <c r="I14" s="44"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="9">
         <v>200</v>
       </c>
-      <c r="N14" s="44" t="s">
+      <c r="N14" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="O14" s="45"/>
+      <c r="O14" s="47"/>
     </row>
     <row r="15" ht="40" customHeight="1" spans="1:15">
-      <c r="A15" s="34"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="7">
+      <c r="A15" s="36"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="9">
         <v>2</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="12">
         <v>0.583333333333333</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="7" t="s">
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="9">
         <v>201</v>
       </c>
-      <c r="N15" s="44" t="s">
+      <c r="N15" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="O15" s="45"/>
+      <c r="O15" s="47"/>
     </row>
     <row r="16" ht="40" customHeight="1" spans="1:15">
-      <c r="A16" s="34"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="7">
+      <c r="A16" s="36"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="9">
         <v>3</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="12">
         <v>0.666666666666667</v>
       </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="7" t="s">
+      <c r="G16" s="21"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="9">
         <v>202</v>
       </c>
-      <c r="N16" s="44" t="s">
+      <c r="N16" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="O16" s="45"/>
+      <c r="O16" s="47"/>
     </row>
     <row r="17" ht="40" customHeight="1" spans="1:15">
-      <c r="A17" s="35"/>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="37"/>
+      <c r="B17" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="9">
         <v>4</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="12">
         <v>0.715277777777778</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="I17" s="48"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="7" t="s">
+      <c r="I17" s="50"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="9">
         <v>500</v>
       </c>
-      <c r="N17" s="21" t="s">
+      <c r="N17" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="O17" s="45"/>
+      <c r="O17" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -2989,711 +3035,711 @@
     <col min="1" max="1" width="8.18181818181818" customWidth="1"/>
     <col min="2" max="2" width="5.45454545454545" customWidth="1"/>
     <col min="3" max="3" width="22.6363636363636" customWidth="1"/>
-    <col min="4" max="4" width="12.4545454545455" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.5454545454545" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.3636363636364" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.09090909090909" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.4545454545455" style="4" customWidth="1"/>
+    <col min="5" max="5" width="30.5454545454545" style="4" customWidth="1"/>
+    <col min="6" max="6" width="20.3636363636364" style="4" customWidth="1"/>
+    <col min="7" max="7" width="8.09090909090909" style="4" customWidth="1"/>
     <col min="8" max="8" width="7.36363636363636" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
     <col min="10" max="10" width="19.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1" spans="1:10">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="49" customHeight="1" spans="1:10">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" s="3" customFormat="1" ht="49" customHeight="1" spans="1:10">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="12">
         <v>0.365972222222222</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="7"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="7"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9">
         <v>4</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="7"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9">
         <v>5</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="13"/>
+      <c r="E7" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="7"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9">
         <v>6</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="9" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="7"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="7"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9">
         <v>8</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="7"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="9">
         <v>1</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="13"/>
+      <c r="E11" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="12">
         <v>0.260416666666667</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="7"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9">
         <v>2</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="9" t="s">
+      <c r="D12" s="13"/>
+      <c r="E12" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="7"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9">
         <v>3</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="13"/>
+      <c r="E13" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="7"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9">
         <v>4</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="13"/>
+      <c r="E14" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="7"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="9">
         <v>1</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="9" t="s">
+      <c r="D15" s="13"/>
+      <c r="E15" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="12">
         <v>0.3125</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="7"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9">
         <v>2</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="9" t="s">
+      <c r="D16" s="13"/>
+      <c r="E16" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="7"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9">
         <v>3</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="9" t="s">
+      <c r="D17" s="13"/>
+      <c r="E17" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="7"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9">
         <v>4</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="9" t="s">
+      <c r="D18" s="13"/>
+      <c r="E18" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="7"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9">
         <v>5</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="9" t="s">
+      <c r="D19" s="13"/>
+      <c r="E19" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="7"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9">
         <v>6</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="9" t="s">
+      <c r="D20" s="13"/>
+      <c r="E20" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="7"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9">
         <v>7</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="9" t="s">
+      <c r="D21" s="16"/>
+      <c r="E21" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="7"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="9">
         <v>1</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="12">
         <v>0.25</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="J22" s="7"/>
+      <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9">
         <v>2</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="9" t="s">
+      <c r="D23" s="13"/>
+      <c r="E23" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="7"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="9"/>
     </row>
     <row r="24" ht="28" spans="1:10">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9">
         <v>3</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="9" t="s">
+      <c r="D24" s="13"/>
+      <c r="E24" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="7"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9">
         <v>4</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="9" t="s">
+      <c r="D25" s="13"/>
+      <c r="E25" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="7"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9">
         <v>5</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="9" t="s">
+      <c r="D26" s="13"/>
+      <c r="E26" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="7"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="9"/>
     </row>
     <row r="27" ht="16" customHeight="1" spans="1:10">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="9">
         <v>1</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="9" t="s">
+      <c r="D27" s="13"/>
+      <c r="E27" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="19">
         <v>0.180555555555556</v>
       </c>
-      <c r="H27" s="16" t="s">
+      <c r="H27" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="I27" s="11"/>
-      <c r="J27" s="7"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="9"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:10">
-      <c r="A28" s="18"/>
-      <c r="B28" s="7">
+      <c r="A28" s="20"/>
+      <c r="B28" s="9">
         <v>2</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="9" t="s">
+      <c r="D28" s="13"/>
+      <c r="E28" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="7"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="9"/>
     </row>
     <row r="29" ht="17" customHeight="1" spans="1:10">
-      <c r="A29" s="18"/>
-      <c r="B29" s="7">
+      <c r="A29" s="20"/>
+      <c r="B29" s="9">
         <v>3</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="9" t="s">
+      <c r="D29" s="13"/>
+      <c r="E29" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="7"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="9"/>
     </row>
     <row r="30" ht="28" spans="1:10">
-      <c r="A30" s="18"/>
-      <c r="B30" s="7">
+      <c r="A30" s="20"/>
+      <c r="B30" s="9">
         <v>4</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="9" t="s">
+      <c r="D30" s="13"/>
+      <c r="E30" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="7"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="9"/>
     </row>
     <row r="31" ht="37" customHeight="1" spans="1:10">
-      <c r="A31" s="18"/>
-      <c r="B31" s="7">
+      <c r="A31" s="20"/>
+      <c r="B31" s="9">
         <v>5</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="9" t="s">
+      <c r="D31" s="13"/>
+      <c r="E31" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="7"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="9"/>
     </row>
     <row r="32" ht="35" customHeight="1" spans="1:10">
-      <c r="A32" s="18"/>
-      <c r="B32" s="7">
+      <c r="A32" s="20"/>
+      <c r="B32" s="9">
         <v>6</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="9" t="s">
+      <c r="D32" s="13"/>
+      <c r="E32" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="7"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="9"/>
     </row>
     <row r="33" ht="33" customHeight="1" spans="1:10">
-      <c r="A33" s="18"/>
-      <c r="B33" s="7">
+      <c r="A33" s="20"/>
+      <c r="B33" s="9">
         <v>7</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="9" t="s">
+      <c r="D33" s="13"/>
+      <c r="E33" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="7"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="9"/>
     </row>
     <row r="34" ht="33" customHeight="1" spans="1:10">
-      <c r="A34" s="19"/>
-      <c r="B34" s="7">
+      <c r="A34" s="21"/>
+      <c r="B34" s="9">
         <v>8</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="9" t="s">
+      <c r="D34" s="13"/>
+      <c r="E34" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="7"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="9"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="9">
         <v>1</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="12">
         <v>0.222222222222222</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="I35" s="8" t="str">
+      <c r="I35" s="10" t="str">
         <f>I3</f>
         <v>PUT front_film
 PUT front_film/film/_mapping 
@@ -3715,151 +3761,151 @@
         }
 }</v>
       </c>
-      <c r="J35" s="7"/>
+      <c r="J35" s="9"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9">
         <v>2</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="9" t="s">
+      <c r="D36" s="13"/>
+      <c r="E36" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="21"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="23"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9">
         <v>3</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="9" t="s">
+      <c r="D37" s="13"/>
+      <c r="E37" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="21"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="23"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9">
         <v>4</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="9" t="s">
+      <c r="D38" s="13"/>
+      <c r="E38" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="21"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="23"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9">
         <v>5</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="9" t="s">
+      <c r="D39" s="13"/>
+      <c r="E39" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="21"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="23"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9">
         <v>6</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="9" t="s">
+      <c r="D40" s="13"/>
+      <c r="E40" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="21"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="23"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9">
         <v>7</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="9" t="s">
+      <c r="D41" s="13"/>
+      <c r="E41" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="21"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="23"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9">
         <v>8</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="D42" s="14"/>
-      <c r="E42" s="9" t="s">
+      <c r="D42" s="16"/>
+      <c r="E42" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="21"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="23"/>
     </row>
     <row r="43" spans="9:9">
-      <c r="I43" s="2"/>
+      <c r="I43" s="4"/>
     </row>
     <row r="44" spans="9:9">
-      <c r="I44" s="2"/>
+      <c r="I44" s="4"/>
     </row>
     <row r="45" spans="9:9">
-      <c r="I45" s="2"/>
+      <c r="I45" s="4"/>
     </row>
     <row r="46" spans="9:9">
-      <c r="I46" s="2"/>
+      <c r="I46" s="4"/>
     </row>
     <row r="47" spans="9:9">
-      <c r="I47" s="2"/>
+      <c r="I47" s="4"/>
     </row>
     <row r="48" spans="9:9">
-      <c r="I48" s="2"/>
+      <c r="I48" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="31">
@@ -3899,4 +3945,47 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="47.4545454545455" customWidth="1"/>
+    <col min="3" max="3" width="41.8181818181818" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" ht="56" customHeight="1" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/main/resources/爬虫&Spark作业执行.xlsx
+++ b/src/main/resources/爬虫&Spark作业执行.xlsx
@@ -926,8 +926,7 @@
     <t>索引建立</t>
   </si>
   <si>
-    <t>PUT search_index
-PUT search_index/search_type/_mapping 
+    <t>PUT search_index/search_type/_mapping 
 {
   "properties": {
           "timeLine": {
@@ -946,6 +945,9 @@
           },
           "numvalue": {
             "type": "double"
+          },
+          "filmName": {
+            "type": "keyword"
           }
         }
 }</t>
@@ -1007,8 +1009,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1021,34 +1024,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1085,21 +1065,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1120,9 +1086,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1144,8 +1145,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1178,7 +1180,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1190,13 +1252,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1208,145 +1312,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1362,6 +1334,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="25">
     <border>
@@ -1574,16 +1576,16 @@
       </diagonal>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1613,17 +1615,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1648,21 +1639,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1671,6 +1647,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1679,10 +1681,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1691,137 +1693,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1833,9 +1835,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2340,8 +2339,8 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="5.09090909090909" customWidth="1"/>
-    <col min="2" max="2" width="9.36363636363636" style="24" customWidth="1"/>
-    <col min="3" max="3" width="4.72727272727273" style="24" customWidth="1"/>
+    <col min="2" max="2" width="9.36363636363636" style="23" customWidth="1"/>
+    <col min="3" max="3" width="4.72727272727273" style="23" customWidth="1"/>
     <col min="4" max="4" width="8.36363636363636" customWidth="1"/>
     <col min="5" max="5" width="7.27272727272727" customWidth="1"/>
     <col min="6" max="6" width="7.72727272727273" customWidth="1"/>
@@ -2357,639 +2356,639 @@
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1" spans="1:15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
     </row>
     <row r="2" s="3" customFormat="1" ht="49" customHeight="1" spans="1:15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="O2" s="28" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" ht="40" customHeight="1" spans="1:15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>1</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="30">
         <v>0.427083333333333</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="39" t="s">
+      <c r="I3" s="37"/>
+      <c r="J3" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="K3" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="N3" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" ht="40" customHeight="1" spans="1:15">
-      <c r="A4" s="30"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9">
+      <c r="A4" s="29"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8">
         <v>2</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="30">
         <v>0.427083333333333</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="41" t="s">
+      <c r="I4" s="37"/>
+      <c r="J4" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="42"/>
-      <c r="L4" s="9" t="s">
+      <c r="K4" s="41"/>
+      <c r="L4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="23" t="s">
+      <c r="N4" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" ht="40" customHeight="1" spans="1:15">
-      <c r="A5" s="30"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9">
+      <c r="A5" s="29"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8">
         <v>3</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="30">
         <v>0.427083333333333</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="38"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="9" t="s">
+      <c r="I5" s="37"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="23" t="s">
+      <c r="N5" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="4"/>
+      <c r="O5" s="2"/>
     </row>
     <row r="6" ht="40" customHeight="1" spans="1:15">
-      <c r="A6" s="30"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="29"/>
+      <c r="B6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>4</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="30">
         <v>0.427083333333333</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="38"/>
-      <c r="J6" s="39" t="s">
+      <c r="I6" s="37"/>
+      <c r="J6" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="42"/>
-      <c r="L6" s="9" t="s">
+      <c r="K6" s="41"/>
+      <c r="L6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="23" t="s">
+      <c r="N6" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" ht="44" customHeight="1" spans="1:15">
-      <c r="A7" s="30"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="29"/>
+      <c r="B7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>5</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="30">
         <v>0.59375</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="39" t="s">
+      <c r="I7" s="37"/>
+      <c r="J7" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="9" t="s">
+      <c r="K7" s="41"/>
+      <c r="L7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="23" t="s">
+      <c r="N7" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" ht="40" customHeight="1" spans="1:15">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>1</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>0.0416666666666667</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="11" t="s">
+      <c r="H8" s="31"/>
+      <c r="I8" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="42"/>
-      <c r="L8" s="9" t="s">
+      <c r="K8" s="41"/>
+      <c r="L8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="N8" s="23" t="s">
+      <c r="N8" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" ht="40" customHeight="1" spans="1:15">
-      <c r="A9" s="30"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9">
+      <c r="A9" s="29"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8">
         <v>2</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>0.00694444444444444</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="11" t="s">
+      <c r="H9" s="32"/>
+      <c r="I9" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="9" t="s">
+      <c r="J9" s="10"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="M9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="N9" s="23" t="s">
+      <c r="N9" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="O9" s="4"/>
+      <c r="O9" s="2"/>
     </row>
     <row r="10" ht="40" customHeight="1" spans="1:15">
-      <c r="A10" s="30"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9">
+      <c r="A10" s="29"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8">
         <v>3</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>0.0416666666666667</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="11" t="s">
+      <c r="H10" s="32"/>
+      <c r="I10" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="9" t="s">
+      <c r="J10" s="10"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="M10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="N10" s="23" t="s">
+      <c r="N10" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="O10" s="4"/>
+      <c r="O10" s="2"/>
     </row>
     <row r="11" ht="40" customHeight="1" spans="1:15">
-      <c r="A11" s="30"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>4</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>0.00694444444444444</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="33"/>
-      <c r="I11" s="11" t="s">
+      <c r="H11" s="32"/>
+      <c r="I11" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="42"/>
-      <c r="L11" s="9" t="s">
+      <c r="K11" s="41"/>
+      <c r="L11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="N11" s="23" t="s">
+      <c r="N11" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="O11" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="12" ht="40" customHeight="1" spans="1:15">
-      <c r="A12" s="30"/>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="29"/>
+      <c r="B12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>5</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>0.229166666666667</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="33"/>
-      <c r="I12" s="11" t="s">
+      <c r="H12" s="32"/>
+      <c r="I12" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="42"/>
-      <c r="L12" s="9" t="s">
+      <c r="K12" s="41"/>
+      <c r="L12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="M12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="N12" s="23" t="s">
+      <c r="N12" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="O12" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13" ht="40" customHeight="1" spans="1:15">
-      <c r="A13" s="30"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="29"/>
+      <c r="B13" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>6</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="9" t="s">
+      <c r="F13" s="33"/>
+      <c r="G13" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="11" t="s">
+      <c r="H13" s="32"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="42"/>
-      <c r="L13" s="9" t="s">
+      <c r="K13" s="41"/>
+      <c r="L13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M13" s="9"/>
-      <c r="N13" s="23" t="s">
+      <c r="M13" s="8"/>
+      <c r="N13" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="O13" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="14" ht="40" customHeight="1" spans="1:15">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>1</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>0.5</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="I14" s="44"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="9" t="s">
+      <c r="I14" s="43"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="8">
         <v>200</v>
       </c>
-      <c r="N14" s="46" t="s">
+      <c r="N14" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="O14" s="47"/>
+      <c r="O14" s="46"/>
     </row>
     <row r="15" ht="40" customHeight="1" spans="1:15">
-      <c r="A15" s="36"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="9">
+      <c r="A15" s="35"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="8">
         <v>2</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="11">
         <v>0.583333333333333</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="9" t="s">
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="8">
         <v>201</v>
       </c>
-      <c r="N15" s="46" t="s">
+      <c r="N15" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="O15" s="47"/>
+      <c r="O15" s="46"/>
     </row>
     <row r="16" ht="40" customHeight="1" spans="1:15">
-      <c r="A16" s="36"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="9">
+      <c r="A16" s="35"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="8">
         <v>3</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <v>0.666666666666667</v>
       </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="9" t="s">
+      <c r="G16" s="20"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="8">
         <v>202</v>
       </c>
-      <c r="N16" s="46" t="s">
+      <c r="N16" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="O16" s="47"/>
+      <c r="O16" s="46"/>
     </row>
     <row r="17" ht="40" customHeight="1" spans="1:15">
-      <c r="A17" s="37"/>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="36"/>
+      <c r="B17" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>4</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <v>0.715277777777778</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="I17" s="50"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="9" t="s">
+      <c r="I17" s="49"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="8">
         <v>500</v>
       </c>
-      <c r="N17" s="23" t="s">
+      <c r="N17" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="O17" s="47"/>
+      <c r="O17" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -3035,711 +3034,711 @@
     <col min="1" max="1" width="8.18181818181818" customWidth="1"/>
     <col min="2" max="2" width="5.45454545454545" customWidth="1"/>
     <col min="3" max="3" width="22.6363636363636" customWidth="1"/>
-    <col min="4" max="4" width="12.4545454545455" style="4" customWidth="1"/>
-    <col min="5" max="5" width="30.5454545454545" style="4" customWidth="1"/>
-    <col min="6" max="6" width="20.3636363636364" style="4" customWidth="1"/>
-    <col min="7" max="7" width="8.09090909090909" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.4545454545455" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.5454545454545" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.3636363636364" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.09090909090909" style="2" customWidth="1"/>
     <col min="8" max="8" width="7.36363636363636" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
     <col min="10" max="10" width="19.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1" spans="1:10">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" s="3" customFormat="1" ht="49" customHeight="1" spans="1:10">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <v>0.365972222222222</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="J3" s="9"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8">
         <v>2</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8">
         <v>3</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="11" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8">
         <v>4</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8">
         <v>5</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="11" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8">
         <v>6</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="11" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8">
         <v>7</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="11" t="s">
+      <c r="D9" s="12"/>
+      <c r="E9" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8">
         <v>8</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="11" t="s">
+      <c r="D10" s="12"/>
+      <c r="E10" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>1</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="11" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <v>0.260416666666667</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="9"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8">
         <v>2</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="11" t="s">
+      <c r="D12" s="12"/>
+      <c r="E12" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8">
         <v>3</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="11" t="s">
+      <c r="D13" s="12"/>
+      <c r="E13" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="9"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8">
         <v>4</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="11" t="s">
+      <c r="D14" s="12"/>
+      <c r="E14" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>1</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="11" t="s">
+      <c r="D15" s="12"/>
+      <c r="E15" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="11">
         <v>0.3125</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="9"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8">
         <v>2</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="11" t="s">
+      <c r="D16" s="12"/>
+      <c r="E16" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="9"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8">
         <v>3</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="11" t="s">
+      <c r="D17" s="12"/>
+      <c r="E17" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="9"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8">
         <v>4</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="11" t="s">
+      <c r="D18" s="12"/>
+      <c r="E18" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="9"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8">
         <v>5</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="11" t="s">
+      <c r="D19" s="12"/>
+      <c r="E19" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="9"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8">
         <v>6</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="11" t="s">
+      <c r="D20" s="12"/>
+      <c r="E20" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="9"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8">
         <v>7</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="11" t="s">
+      <c r="D21" s="15"/>
+      <c r="E21" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="9"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>1</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="11">
         <v>0.25</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="I22" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="J22" s="9"/>
+      <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8">
         <v>2</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="11" t="s">
+      <c r="D23" s="12"/>
+      <c r="E23" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="9"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" ht="28" spans="1:10">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8">
         <v>3</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="11" t="s">
+      <c r="D24" s="12"/>
+      <c r="E24" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="9"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8">
         <v>4</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="11" t="s">
+      <c r="D25" s="12"/>
+      <c r="E25" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="9"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="8"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8">
         <v>5</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="11" t="s">
+      <c r="D26" s="12"/>
+      <c r="E26" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="9"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="8"/>
     </row>
     <row r="27" ht="16" customHeight="1" spans="1:10">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="8">
         <v>1</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="11" t="s">
+      <c r="D27" s="12"/>
+      <c r="E27" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="18">
         <v>0.180555555555556</v>
       </c>
-      <c r="H27" s="18" t="s">
+      <c r="H27" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="9"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="8"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:10">
-      <c r="A28" s="20"/>
-      <c r="B28" s="9">
+      <c r="A28" s="19"/>
+      <c r="B28" s="8">
         <v>2</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="11" t="s">
+      <c r="D28" s="12"/>
+      <c r="E28" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="9"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="8"/>
     </row>
     <row r="29" ht="17" customHeight="1" spans="1:10">
-      <c r="A29" s="20"/>
-      <c r="B29" s="9">
+      <c r="A29" s="19"/>
+      <c r="B29" s="8">
         <v>3</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="11" t="s">
+      <c r="D29" s="12"/>
+      <c r="E29" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="9"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="8"/>
     </row>
     <row r="30" ht="28" spans="1:10">
-      <c r="A30" s="20"/>
-      <c r="B30" s="9">
+      <c r="A30" s="19"/>
+      <c r="B30" s="8">
         <v>4</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="11" t="s">
+      <c r="D30" s="12"/>
+      <c r="E30" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="9"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="8"/>
     </row>
     <row r="31" ht="37" customHeight="1" spans="1:10">
-      <c r="A31" s="20"/>
-      <c r="B31" s="9">
+      <c r="A31" s="19"/>
+      <c r="B31" s="8">
         <v>5</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="11" t="s">
+      <c r="D31" s="12"/>
+      <c r="E31" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="9"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="8"/>
     </row>
     <row r="32" ht="35" customHeight="1" spans="1:10">
-      <c r="A32" s="20"/>
-      <c r="B32" s="9">
+      <c r="A32" s="19"/>
+      <c r="B32" s="8">
         <v>6</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="11" t="s">
+      <c r="D32" s="12"/>
+      <c r="E32" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="9"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="8"/>
     </row>
     <row r="33" ht="33" customHeight="1" spans="1:10">
-      <c r="A33" s="20"/>
-      <c r="B33" s="9">
+      <c r="A33" s="19"/>
+      <c r="B33" s="8">
         <v>7</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="11" t="s">
+      <c r="D33" s="12"/>
+      <c r="E33" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="9"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="8"/>
     </row>
     <row r="34" ht="33" customHeight="1" spans="1:10">
-      <c r="A34" s="21"/>
-      <c r="B34" s="9">
+      <c r="A34" s="20"/>
+      <c r="B34" s="8">
         <v>8</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="11" t="s">
+      <c r="D34" s="12"/>
+      <c r="E34" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="9"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="8"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="8">
         <v>1</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="11">
         <v>0.222222222222222</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H35" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="I35" s="10" t="str">
+      <c r="I35" s="9" t="str">
         <f>I3</f>
         <v>PUT front_film
 PUT front_film/film/_mapping 
@@ -3761,151 +3760,151 @@
         }
 }</v>
       </c>
-      <c r="J35" s="9"/>
+      <c r="J35" s="8"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8">
         <v>2</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="11" t="s">
+      <c r="D36" s="12"/>
+      <c r="E36" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="23"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="22"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8">
         <v>3</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="11" t="s">
+      <c r="D37" s="12"/>
+      <c r="E37" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="23"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="22"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8">
         <v>4</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="11" t="s">
+      <c r="D38" s="12"/>
+      <c r="E38" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="23"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="22"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8">
         <v>5</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="11" t="s">
+      <c r="D39" s="12"/>
+      <c r="E39" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="23"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="22"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8">
         <v>6</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="11" t="s">
+      <c r="D40" s="12"/>
+      <c r="E40" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="23"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="22"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8">
         <v>7</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="11" t="s">
+      <c r="D41" s="12"/>
+      <c r="E41" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="23"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="22"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8">
         <v>8</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="11" t="s">
+      <c r="D42" s="15"/>
+      <c r="E42" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="F42" s="11"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="23"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="22"/>
     </row>
     <row r="43" spans="9:9">
-      <c r="I43" s="4"/>
+      <c r="I43" s="2"/>
     </row>
     <row r="44" spans="9:9">
-      <c r="I44" s="4"/>
+      <c r="I44" s="2"/>
     </row>
     <row r="45" spans="9:9">
-      <c r="I45" s="4"/>
+      <c r="I45" s="2"/>
     </row>
     <row r="46" spans="9:9">
-      <c r="I46" s="4"/>
+      <c r="I46" s="2"/>
     </row>
     <row r="47" spans="9:9">
-      <c r="I47" s="4"/>
+      <c r="I47" s="2"/>
     </row>
     <row r="48" spans="9:9">
-      <c r="I48" s="4"/>
+      <c r="I48" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="31">
@@ -3953,7 +3952,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>

--- a/src/main/resources/爬虫&Spark作业执行.xlsx
+++ b/src/main/resources/爬虫&Spark作业执行.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7730" tabRatio="506" activeTab="2"/>
+    <workbookView windowWidth="19100" windowHeight="7730" tabRatio="506"/>
   </bookViews>
   <sheets>
     <sheet name="爬虫执行汇总" sheetId="2" r:id="rId1"/>
@@ -962,8 +962,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -1009,9 +1009,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1019,6 +1025,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1033,6 +1046,43 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1064,71 +1114,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1148,6 +1133,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1180,7 +1180,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1192,19 +1198,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1216,13 +1228,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1234,25 +1240,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1264,7 +1252,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1282,7 +1300,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1300,67 +1354,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1577,16 +1577,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1615,26 +1615,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1650,11 +1652,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1681,10 +1681,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1693,133 +1693,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2330,10 +2330,10 @@
   <sheetPr/>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3951,7 +3951,7 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/爬虫&Spark作业执行.xlsx
+++ b/src/main/resources/爬虫&Spark作业执行.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7730" tabRatio="506"/>
+    <workbookView windowWidth="19080" windowHeight="7320" tabRatio="506"/>
   </bookViews>
   <sheets>
     <sheet name="爬虫执行汇总" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192">
   <si>
     <t>爬虫执行汇总表</t>
   </si>
@@ -923,6 +923,46 @@
     <t>movie_showInfo_pie</t>
   </si>
   <si>
+    <t>交互式查询</t>
+  </si>
+  <si>
+    <t>电影、综艺、电视剧、上映电影、图书、网络文学</t>
+  </si>
+  <si>
+    <t>search_index/search_type</t>
+  </si>
+  <si>
+    <t>com.hxqh.bigdata.ma.spark.MarketInteractiveQuery</t>
+  </si>
+  <si>
+    <t>PUT search_index
+PUT search_index/search_type/_mapping 
+{
+  "properties": {
+          "timeLine": {
+            "type": "date",
+            "format": "yyyy-MM-dd HH:mm:ss||yyyy-MM-dd||epoch_millis"
+          },
+          "addTime": {
+            "type": "date",
+            "format": "yyyy-MM-dd HH:mm:ss||yyyy-MM-dd||epoch_millis"
+          },
+          "taskid": {
+            "type": "long"
+          },
+          "category": {
+            "type": "keyword"
+          },
+          "numvalue": {
+            "type": "double"
+          },
+          "filmName": {
+            "type": "keyword"
+          }
+        }
+}</t>
+  </si>
+  <si>
     <t>索引建立</t>
   </si>
   <si>
@@ -962,8 +1002,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -1009,10 +1049,27 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1024,7 +1081,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1038,16 +1110,39 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1062,17 +1157,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1083,71 +1171,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1180,7 +1220,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1192,67 +1364,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1270,97 +1394,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1593,9 +1633,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1615,13 +1666,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1644,8 +1699,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1653,23 +1708,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1681,10 +1721,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1693,137 +1733,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1892,6 +1932,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2331,16 +2374,16 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3:K13"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="5.09090909090909" customWidth="1"/>
-    <col min="2" max="2" width="9.36363636363636" style="23" customWidth="1"/>
-    <col min="3" max="3" width="4.72727272727273" style="23" customWidth="1"/>
+    <col min="2" max="2" width="9.36363636363636" style="24" customWidth="1"/>
+    <col min="3" max="3" width="4.72727272727273" style="24" customWidth="1"/>
     <col min="4" max="4" width="8.36363636363636" customWidth="1"/>
     <col min="5" max="5" width="7.27272727272727" customWidth="1"/>
     <col min="6" max="6" width="7.72727272727273" customWidth="1"/>
@@ -2356,73 +2399,73 @@
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1" spans="1:15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
     </row>
     <row r="2" s="3" customFormat="1" ht="49" customHeight="1" spans="1:15">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="N2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="O2" s="29" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" ht="40" customHeight="1" spans="1:15">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -2437,7 +2480,7 @@
       <c r="E3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="31">
         <v>0.427083333333333</v>
       </c>
       <c r="G3" s="16" t="s">
@@ -2446,11 +2489,11 @@
       <c r="H3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38" t="s">
+      <c r="I3" s="38"/>
+      <c r="J3" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="40" t="s">
         <v>23</v>
       </c>
       <c r="L3" s="8" t="s">
@@ -2467,7 +2510,7 @@
       </c>
     </row>
     <row r="4" ht="40" customHeight="1" spans="1:15">
-      <c r="A4" s="29"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8">
         <v>2</v>
@@ -2478,7 +2521,7 @@
       <c r="E4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="31">
         <v>0.427083333333333</v>
       </c>
       <c r="G4" s="16" t="s">
@@ -2487,11 +2530,11 @@
       <c r="H4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="37"/>
-      <c r="J4" s="40" t="s">
+      <c r="I4" s="38"/>
+      <c r="J4" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="41"/>
+      <c r="K4" s="42"/>
       <c r="L4" s="8" t="s">
         <v>31</v>
       </c>
@@ -2506,7 +2549,7 @@
       </c>
     </row>
     <row r="5" ht="40" customHeight="1" spans="1:15">
-      <c r="A5" s="29"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8">
         <v>3</v>
@@ -2517,7 +2560,7 @@
       <c r="E5" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="31">
         <v>0.427083333333333</v>
       </c>
       <c r="G5" s="16" t="s">
@@ -2526,9 +2569,9 @@
       <c r="H5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="41"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="42"/>
       <c r="L5" s="8" t="s">
         <v>31</v>
       </c>
@@ -2541,7 +2584,7 @@
       <c r="O5" s="2"/>
     </row>
     <row r="6" ht="40" customHeight="1" spans="1:15">
-      <c r="A6" s="29"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="8" t="s">
         <v>38</v>
       </c>
@@ -2554,7 +2597,7 @@
       <c r="E6" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="31">
         <v>0.427083333333333</v>
       </c>
       <c r="G6" s="16" t="s">
@@ -2563,11 +2606,11 @@
       <c r="H6" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="38" t="s">
+      <c r="I6" s="38"/>
+      <c r="J6" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="41"/>
+      <c r="K6" s="42"/>
       <c r="L6" s="8" t="s">
         <v>31</v>
       </c>
@@ -2582,7 +2625,7 @@
       </c>
     </row>
     <row r="7" ht="44" customHeight="1" spans="1:15">
-      <c r="A7" s="29"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="8" t="s">
         <v>46</v>
       </c>
@@ -2595,7 +2638,7 @@
       <c r="E7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="31">
         <v>0.59375</v>
       </c>
       <c r="G7" s="16" t="s">
@@ -2604,11 +2647,11 @@
       <c r="H7" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="38" t="s">
+      <c r="I7" s="38"/>
+      <c r="J7" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="41"/>
+      <c r="K7" s="42"/>
       <c r="L7" s="8" t="s">
         <v>31</v>
       </c>
@@ -2623,7 +2666,7 @@
       </c>
     </row>
     <row r="8" ht="40" customHeight="1" spans="1:15">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="30" t="s">
         <v>52</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -2644,14 +2687,14 @@
       <c r="G8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="31"/>
+      <c r="H8" s="32"/>
       <c r="I8" s="10" t="s">
         <v>54</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="41"/>
+      <c r="K8" s="42"/>
       <c r="L8" s="8" t="s">
         <v>31</v>
       </c>
@@ -2666,7 +2709,7 @@
       </c>
     </row>
     <row r="9" ht="40" customHeight="1" spans="1:15">
-      <c r="A9" s="29"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8">
         <v>2</v>
@@ -2683,12 +2726,12 @@
       <c r="G9" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="32"/>
+      <c r="H9" s="33"/>
       <c r="I9" s="10" t="s">
         <v>58</v>
       </c>
       <c r="J9" s="10"/>
-      <c r="K9" s="41"/>
+      <c r="K9" s="42"/>
       <c r="L9" s="8" t="s">
         <v>31</v>
       </c>
@@ -2701,7 +2744,7 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" ht="40" customHeight="1" spans="1:15">
-      <c r="A10" s="29"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8">
         <v>3</v>
@@ -2718,12 +2761,12 @@
       <c r="G10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="32"/>
+      <c r="H10" s="33"/>
       <c r="I10" s="10" t="s">
         <v>60</v>
       </c>
       <c r="J10" s="10"/>
-      <c r="K10" s="41"/>
+      <c r="K10" s="42"/>
       <c r="L10" s="8" t="s">
         <v>31</v>
       </c>
@@ -2736,7 +2779,7 @@
       <c r="O10" s="2"/>
     </row>
     <row r="11" ht="40" customHeight="1" spans="1:15">
-      <c r="A11" s="29"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="8" t="s">
         <v>38</v>
       </c>
@@ -2755,14 +2798,14 @@
       <c r="G11" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="32"/>
+      <c r="H11" s="33"/>
       <c r="I11" s="10" t="s">
         <v>54</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="41"/>
+      <c r="K11" s="42"/>
       <c r="L11" s="8" t="s">
         <v>31</v>
       </c>
@@ -2777,7 +2820,7 @@
       </c>
     </row>
     <row r="12" ht="40" customHeight="1" spans="1:15">
-      <c r="A12" s="29"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="8" t="s">
         <v>46</v>
       </c>
@@ -2796,14 +2839,14 @@
       <c r="G12" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="32"/>
+      <c r="H12" s="33"/>
       <c r="I12" s="10" t="s">
         <v>54</v>
       </c>
       <c r="J12" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="41"/>
+      <c r="K12" s="42"/>
       <c r="L12" s="8" t="s">
         <v>31</v>
       </c>
@@ -2818,7 +2861,7 @@
       </c>
     </row>
     <row r="13" ht="40" customHeight="1" spans="1:15">
-      <c r="A13" s="29"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="8" t="s">
         <v>68</v>
       </c>
@@ -2831,16 +2874,16 @@
       <c r="E13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="33"/>
+      <c r="F13" s="34"/>
       <c r="G13" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="32"/>
-      <c r="I13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="34"/>
       <c r="J13" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="41"/>
+      <c r="K13" s="42"/>
       <c r="L13" s="8" t="s">
         <v>31</v>
       </c>
@@ -2853,7 +2896,7 @@
       </c>
     </row>
     <row r="14" ht="40" customHeight="1" spans="1:15">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="35" t="s">
         <v>74</v>
       </c>
       <c r="B14" s="17" t="s">
@@ -2877,22 +2920,22 @@
       <c r="H14" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="I14" s="43"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="41"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="42"/>
       <c r="L14" s="8" t="s">
         <v>31</v>
       </c>
       <c r="M14" s="8">
         <v>200</v>
       </c>
-      <c r="N14" s="45" t="s">
+      <c r="N14" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="O14" s="46"/>
+      <c r="O14" s="47"/>
     </row>
     <row r="15" ht="40" customHeight="1" spans="1:15">
-      <c r="A15" s="35"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="19"/>
       <c r="C15" s="8">
         <v>2</v>
@@ -2908,22 +2951,22 @@
       </c>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="41"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="42"/>
       <c r="L15" s="8" t="s">
         <v>31</v>
       </c>
       <c r="M15" s="8">
         <v>201</v>
       </c>
-      <c r="N15" s="45" t="s">
+      <c r="N15" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="O15" s="46"/>
+      <c r="O15" s="47"/>
     </row>
     <row r="16" ht="40" customHeight="1" spans="1:15">
-      <c r="A16" s="35"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="19"/>
       <c r="C16" s="8">
         <v>3</v>
@@ -2939,22 +2982,22 @@
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="19"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="41"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="42"/>
       <c r="L16" s="8" t="s">
         <v>31</v>
       </c>
       <c r="M16" s="8">
         <v>202</v>
       </c>
-      <c r="N16" s="45" t="s">
+      <c r="N16" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="O16" s="46"/>
+      <c r="O16" s="47"/>
     </row>
     <row r="17" ht="40" customHeight="1" spans="1:15">
-      <c r="A17" s="36"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="8" t="s">
         <v>84</v>
       </c>
@@ -2976,9 +3019,9 @@
       <c r="H17" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="I17" s="49"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="51"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="52"/>
       <c r="L17" s="8" t="s">
         <v>31</v>
       </c>
@@ -2988,7 +3031,7 @@
       <c r="N17" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="O17" s="46"/>
+      <c r="O17" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -3024,14 +3067,14 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I35" sqref="I35:I42"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2:I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="8.18181818181818" customWidth="1"/>
+    <col min="1" max="1" width="11.0909090909091" customWidth="1"/>
     <col min="2" max="2" width="5.45454545454545" customWidth="1"/>
     <col min="3" max="3" width="22.6363636363636" customWidth="1"/>
     <col min="4" max="4" width="12.4545454545455" style="2" customWidth="1"/>
@@ -3888,8 +3931,33 @@
       <c r="I42" s="15"/>
       <c r="J42" s="22"/>
     </row>
-    <row r="43" spans="9:9">
-      <c r="I43" s="2"/>
+    <row r="43" ht="49" customHeight="1" spans="1:10">
+      <c r="A43" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="B43" s="8">
+        <v>1</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G43" s="23"/>
+      <c r="H43" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="I43" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="J43" s="22"/>
     </row>
     <row r="44" spans="9:9">
       <c r="I44" s="2"/>
@@ -3966,7 +4034,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>14</v>
@@ -3977,10 +4045,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
